--- a/Docs/planification-Projet-Hanieh Mohajerani.xlsx
+++ b/Docs/planification-Projet-Hanieh Mohajerani.xlsx
@@ -5,12 +5,12 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\cours\Semestre 1-2\Projet-Module-C#\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours-Semestre\Semestres\Semestre 1-2\Projet-Module-C#\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{F44B1B77-61C4-4CD7-842C-3F7D4066D1F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC79EB8-B8AE-43B0-8A6C-84A863302498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="78">
   <si>
     <t>Module :</t>
   </si>
@@ -268,7 +268,40 @@
     <t>j'ai fait le planification pour durée de travail</t>
   </si>
   <si>
-    <t>j'ai creé les methodes et la class  Vecteur2d et la classe SpaceShip et la methode DrawImage</t>
+    <t>créer git hub</t>
+  </si>
+  <si>
+    <t>j'ai créé mon git hub</t>
+  </si>
+  <si>
+    <t>j'ai creé les methodes et la class  Vecteur2d et la classe SpaceShip,classe game ,ballequitombe et gameobjet et ses methodes dedans</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> depelacer le jeu vers le bas </t>
+  </si>
+  <si>
+    <t>depelacer le jeu a gouche et droit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j'ai ajouter un champ playerShip de type SpaceShip </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ajoutez le nouveau vaisseau à la liste des objets du jeu.</t>
+  </si>
+  <si>
+    <t>s la méthode Update de la classe SpaceShip</t>
+  </si>
+  <si>
+    <t>j'ai corrigé les codes et ca march,il va a gouche et droit juste.</t>
+  </si>
+  <si>
+    <t>depelacment juste a gouche et droit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> commence la partie La classe Missile</t>
+  </si>
+  <si>
+    <t>j'ai commencé la La classe Missile</t>
   </si>
 </sst>
 </file>
@@ -908,7 +941,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1152,16 +1185,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1182,6 +1205,19 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1569,7 +1605,7 @@
                   <a14:compatExt spid="_x0000_s46081"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D09E1A6C-B10D-46E2-BA28-F032825CEFAB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001B40000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1632,7 +1668,7 @@
                   <a14:compatExt spid="_x0000_s45057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F62593-241C-4DD9-9D8B-1C4F4FD87C82}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001B00000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1902,7 +1938,7 @@
   </sheetPr>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2119,10 +2155,10 @@
     </row>
     <row r="19" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="89"/>
+      <c r="C19" s="96"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
       <c r="F19" s="60"/>
@@ -3067,7 +3103,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="90" t="s">
+      <c r="B3" s="97" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16">
@@ -3076,7 +3112,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="91"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
@@ -3879,8 +3915,8 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:I281"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C269" sqref="C269"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3919,7 +3955,7 @@
     <row r="3" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="95">
+      <c r="C3" s="91">
         <v>45309</v>
       </c>
       <c r="D3" s="9"/>
@@ -3931,7 +3967,7 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="92" t="s">
         <v>41</v>
       </c>
       <c r="D4" s="10"/>
@@ -3943,10 +3979,10 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="96" t="s">
+      <c r="C5" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="94" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3957,21 +3993,27 @@
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="96" t="s">
+      <c r="C6" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="96"/>
+      <c r="D6" s="92"/>
     </row>
     <row r="7" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="10"/>
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>66</v>
+      </c>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="92" t="s">
         <v>44</v>
       </c>
       <c r="D8" s="10"/>
@@ -3983,7 +4025,7 @@
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="96" t="s">
+      <c r="C9" s="92" t="s">
         <v>45</v>
       </c>
       <c r="D9" s="10"/>
@@ -4012,9 +4054,9 @@
       </c>
       <c r="B13" s="12">
         <f>SUM(B3:B12)</f>
-        <v>4</v>
-      </c>
-      <c r="C13" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="13"/>
@@ -4049,24 +4091,36 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="97" t="s">
+      <c r="C17" s="99">
+        <v>45316</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2</v>
+      </c>
+      <c r="C18" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="10"/>
       <c r="D18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="92" t="s">
+        <v>69</v>
+      </c>
       <c r="D19" s="10"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -4077,7 +4131,9 @@
     <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="10"/>
+      <c r="C20" s="92" t="s">
+        <v>70</v>
+      </c>
       <c r="D20" s="10"/>
       <c r="E20" s="20"/>
       <c r="F20" s="32"/>
@@ -4157,9 +4213,9 @@
       </c>
       <c r="B27" s="12">
         <f>SUM(B17:B26)</f>
-        <v>0</v>
-      </c>
-      <c r="C27" s="92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="13"/>
@@ -4214,11 +4270,11 @@
       <c r="H30" s="40"/>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="97" t="s">
-        <v>37</v>
+      <c r="C31" s="99">
+        <v>45323</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="20"/>
@@ -4230,7 +4286,9 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="93" t="s">
+        <v>37</v>
+      </c>
       <c r="D32" s="10"/>
       <c r="E32" s="20"/>
       <c r="F32" s="20"/>
@@ -4239,9 +4297,15 @@
       <c r="I32" s="20"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="10"/>
+      <c r="A33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="2">
+        <v>2</v>
+      </c>
+      <c r="C33" s="92" t="s">
+        <v>75</v>
+      </c>
       <c r="D33" s="10"/>
       <c r="E33" s="20"/>
       <c r="F33" s="20"/>
@@ -4250,9 +4314,15 @@
       <c r="I33" s="20"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="92" t="s">
+        <v>76</v>
+      </c>
       <c r="D34" s="10"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20"/>
@@ -4302,9 +4372,9 @@
       </c>
       <c r="B41" s="12">
         <f>SUM(B31:B40)</f>
-        <v>0</v>
-      </c>
-      <c r="C41" s="92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="13"/>
@@ -4342,7 +4412,7 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="97" t="s">
+      <c r="C45" s="93" t="s">
         <v>47</v>
       </c>
       <c r="D45" s="9"/>
@@ -4409,7 +4479,7 @@
         <f>SUM(B45:B54)</f>
         <v>0</v>
       </c>
-      <c r="C55" s="92" t="s">
+      <c r="C55" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D55" s="13"/>
@@ -4447,7 +4517,7 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="97" t="s">
+      <c r="C59" s="93" t="s">
         <v>48</v>
       </c>
       <c r="D59" s="9"/>
@@ -4514,7 +4584,7 @@
         <f>SUM(B59:B68)</f>
         <v>0</v>
       </c>
-      <c r="C69" s="92" t="s">
+      <c r="C69" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D69" s="13"/>
@@ -4552,7 +4622,7 @@
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="97" t="s">
+      <c r="C73" s="93" t="s">
         <v>38</v>
       </c>
       <c r="D73" s="9"/>
@@ -4619,7 +4689,7 @@
         <f>SUM(B73:B82)</f>
         <v>0</v>
       </c>
-      <c r="C83" s="92" t="s">
+      <c r="C83" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D83" s="13"/>
@@ -4657,7 +4727,7 @@
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="97" t="s">
+      <c r="C87" s="93" t="s">
         <v>49</v>
       </c>
       <c r="D87" s="9"/>
@@ -4724,7 +4794,7 @@
         <f>SUM(B87:B96)</f>
         <v>0</v>
       </c>
-      <c r="C97" s="92" t="s">
+      <c r="C97" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D97" s="13"/>
@@ -4762,7 +4832,7 @@
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="97" t="s">
+      <c r="C101" s="93" t="s">
         <v>50</v>
       </c>
       <c r="D101" s="9"/>
@@ -4829,7 +4899,7 @@
         <f>SUM(B101:B110)</f>
         <v>0</v>
       </c>
-      <c r="C111" s="92" t="s">
+      <c r="C111" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D111" s="13"/>
@@ -4867,7 +4937,7 @@
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="97" t="s">
+      <c r="C115" s="93" t="s">
         <v>39</v>
       </c>
       <c r="D115" s="9"/>
@@ -4934,7 +5004,7 @@
         <f>SUM(B115:B124)</f>
         <v>0</v>
       </c>
-      <c r="C125" s="92" t="s">
+      <c r="C125" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D125" s="13"/>
@@ -4972,7 +5042,7 @@
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="97" t="s">
+      <c r="C129" s="93" t="s">
         <v>51</v>
       </c>
       <c r="D129" s="9"/>
@@ -5039,7 +5109,7 @@
         <f>SUM(B129:B138)</f>
         <v>0</v>
       </c>
-      <c r="C139" s="92" t="s">
+      <c r="C139" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D139" s="13"/>
@@ -5077,7 +5147,7 @@
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="97" t="s">
+      <c r="C143" s="93" t="s">
         <v>52</v>
       </c>
       <c r="D143" s="9"/>
@@ -5144,7 +5214,7 @@
         <f>SUM(B143:B152)</f>
         <v>0</v>
       </c>
-      <c r="C153" s="92" t="s">
+      <c r="C153" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D153" s="13"/>
@@ -5182,7 +5252,7 @@
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="4"/>
-      <c r="C157" s="97" t="s">
+      <c r="C157" s="93" t="s">
         <v>53</v>
       </c>
       <c r="D157" s="9"/>
@@ -5249,7 +5319,7 @@
         <f>SUM(B157:B166)</f>
         <v>0</v>
       </c>
-      <c r="C167" s="92" t="s">
+      <c r="C167" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D167" s="13"/>
@@ -5287,7 +5357,7 @@
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="97" t="s">
+      <c r="C171" s="93" t="s">
         <v>54</v>
       </c>
       <c r="D171" s="9"/>
@@ -5354,7 +5424,7 @@
         <f>SUM(B171:B180)</f>
         <v>0</v>
       </c>
-      <c r="C181" s="92" t="s">
+      <c r="C181" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D181" s="13"/>
@@ -5392,7 +5462,7 @@
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="97" t="s">
+      <c r="C185" s="93" t="s">
         <v>55</v>
       </c>
       <c r="D185" s="9"/>
@@ -5459,7 +5529,7 @@
         <f>SUM(B185:B194)</f>
         <v>0</v>
       </c>
-      <c r="C195" s="92" t="s">
+      <c r="C195" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D195" s="13"/>
@@ -5497,7 +5567,7 @@
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
       <c r="B199" s="4"/>
-      <c r="C199" s="97" t="s">
+      <c r="C199" s="93" t="s">
         <v>56</v>
       </c>
       <c r="D199" s="9"/>
@@ -5564,7 +5634,7 @@
         <f>SUM(B199:B208)</f>
         <v>0</v>
       </c>
-      <c r="C209" s="92" t="s">
+      <c r="C209" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D209" s="13"/>
@@ -5602,7 +5672,7 @@
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
       <c r="B213" s="4"/>
-      <c r="C213" s="97" t="s">
+      <c r="C213" s="93" t="s">
         <v>57</v>
       </c>
       <c r="D213" s="9"/>
@@ -5669,7 +5739,7 @@
         <f>SUM(B213:B222)</f>
         <v>0</v>
       </c>
-      <c r="C223" s="92" t="s">
+      <c r="C223" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D223" s="13"/>
@@ -5707,7 +5777,7 @@
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="97" t="s">
+      <c r="C227" s="93" t="s">
         <v>58</v>
       </c>
       <c r="D227" s="9"/>
@@ -5774,7 +5844,7 @@
         <f>SUM(B227:B236)</f>
         <v>0</v>
       </c>
-      <c r="C237" s="92" t="s">
+      <c r="C237" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D237" s="13"/>
@@ -5812,7 +5882,7 @@
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
       <c r="B241" s="4"/>
-      <c r="C241" s="97" t="s">
+      <c r="C241" s="93" t="s">
         <v>59</v>
       </c>
       <c r="D241" s="9"/>
@@ -5844,7 +5914,7 @@
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
-      <c r="C246" s="96" t="s">
+      <c r="C246" s="92" t="s">
         <v>60</v>
       </c>
       <c r="D246" s="10"/>
@@ -5881,7 +5951,7 @@
         <f>SUM(B241:B250)</f>
         <v>0</v>
       </c>
-      <c r="C251" s="92" t="s">
+      <c r="C251" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D251" s="13"/>
@@ -5919,7 +5989,7 @@
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="5"/>
       <c r="B255" s="4"/>
-      <c r="C255" s="97" t="s">
+      <c r="C255" s="93" t="s">
         <v>61</v>
       </c>
       <c r="D255" s="9"/>
@@ -5986,7 +6056,7 @@
         <f>SUM(B255:B264)</f>
         <v>0</v>
       </c>
-      <c r="C265" s="92" t="s">
+      <c r="C265" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D265" s="13"/>
@@ -6024,7 +6094,7 @@
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="5"/>
       <c r="B269" s="4"/>
-      <c r="C269" s="97" t="s">
+      <c r="C269" s="93" t="s">
         <v>62</v>
       </c>
       <c r="D269" s="9"/>
@@ -6091,7 +6161,7 @@
         <f>SUM(B269:B278)</f>
         <v>0</v>
       </c>
-      <c r="C279" s="92" t="s">
+      <c r="C279" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D279" s="13"/>
@@ -6103,7 +6173,7 @@
       <c r="D280" s="14"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="93" t="s">
+      <c r="A281" s="89" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6164,8 +6234,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:I381"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6213,7 +6283,7 @@
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="97" t="s">
+      <c r="C3" s="93" t="s">
         <v>63</v>
       </c>
       <c r="D3" s="9"/>
@@ -6225,7 +6295,7 @@
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="92" t="s">
         <v>64</v>
       </c>
       <c r="D4" s="10"/>
@@ -6237,33 +6307,36 @@
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="96" t="s">
-        <v>65</v>
+      <c r="C5" s="53" t="s">
+        <v>67</v>
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" s="53" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="96" t="s">
-        <v>66</v>
+      <c r="C6" s="92" t="s">
+        <v>65</v>
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="53" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="92" t="s">
+        <v>68</v>
+      </c>
       <c r="D7" s="10"/>
     </row>
     <row r="8" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
@@ -6326,9 +6399,9 @@
       </c>
       <c r="B18" s="48">
         <f>SUM(B3:B17)</f>
-        <v>4</v>
-      </c>
-      <c r="C18" s="94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="49"/>
@@ -6375,15 +6448,27 @@
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="10"/>
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+      <c r="C23" s="92" t="s">
+        <v>71</v>
+      </c>
       <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="92" t="s">
+        <v>72</v>
+      </c>
       <c r="D24" s="10"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -6393,8 +6478,12 @@
     </row>
     <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="92" t="s">
+        <v>73</v>
+      </c>
       <c r="D25" s="10"/>
       <c r="E25" s="20"/>
       <c r="F25" s="32"/>
@@ -6529,9 +6618,9 @@
       </c>
       <c r="B37" s="48">
         <f>SUM(B22:B36)</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D37" s="49"/>
@@ -6593,15 +6682,25 @@
       <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="10"/>
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2</v>
+      </c>
+      <c r="C42" s="92" t="s">
+        <v>74</v>
+      </c>
       <c r="D42" s="10"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="10"/>
+      <c r="B43" s="2">
+        <v>1</v>
+      </c>
+      <c r="C43" s="92" t="s">
+        <v>77</v>
+      </c>
       <c r="D43" s="10"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -6682,9 +6781,9 @@
       </c>
       <c r="B56" s="48">
         <f>SUM(B41:B55)</f>
-        <v>0</v>
-      </c>
-      <c r="C56" s="94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D56" s="49"/>
@@ -6822,7 +6921,7 @@
         <f>SUM(B60:B74)</f>
         <v>0</v>
       </c>
-      <c r="C75" s="94" t="s">
+      <c r="C75" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D75" s="49"/>
@@ -6960,7 +7059,7 @@
         <f>SUM(B79:B93)</f>
         <v>0</v>
       </c>
-      <c r="C94" s="94" t="s">
+      <c r="C94" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D94" s="49"/>
@@ -7098,7 +7197,7 @@
         <f>SUM(B98:B112)</f>
         <v>0</v>
       </c>
-      <c r="C113" s="94" t="s">
+      <c r="C113" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D113" s="49"/>
@@ -7236,7 +7335,7 @@
         <f>SUM(B117:B131)</f>
         <v>0</v>
       </c>
-      <c r="C132" s="94" t="s">
+      <c r="C132" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D132" s="49"/>
@@ -7374,7 +7473,7 @@
         <f>SUM(B136:B150)</f>
         <v>0</v>
       </c>
-      <c r="C151" s="94" t="s">
+      <c r="C151" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D151" s="49"/>
@@ -7512,7 +7611,7 @@
         <f>SUM(B155:B169)</f>
         <v>0</v>
       </c>
-      <c r="C170" s="94" t="s">
+      <c r="C170" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D170" s="49"/>
@@ -7650,7 +7749,7 @@
         <f>SUM(B174:B188)</f>
         <v>0</v>
       </c>
-      <c r="C189" s="94" t="s">
+      <c r="C189" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D189" s="49"/>
@@ -7788,7 +7887,7 @@
         <f>SUM(B193:B207)</f>
         <v>0</v>
       </c>
-      <c r="C208" s="94" t="s">
+      <c r="C208" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D208" s="49"/>
@@ -7926,7 +8025,7 @@
         <f>SUM(B212:B226)</f>
         <v>0</v>
       </c>
-      <c r="C227" s="94" t="s">
+      <c r="C227" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D227" s="49"/>
@@ -8064,7 +8163,7 @@
         <f>SUM(B231:B245)</f>
         <v>0</v>
       </c>
-      <c r="C246" s="94" t="s">
+      <c r="C246" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D246" s="49"/>
@@ -8202,7 +8301,7 @@
         <f>SUM(B250:B264)</f>
         <v>0</v>
       </c>
-      <c r="C265" s="94" t="s">
+      <c r="C265" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D265" s="49"/>
@@ -8340,7 +8439,7 @@
         <f>SUM(B269:B283)</f>
         <v>0</v>
       </c>
-      <c r="C284" s="94" t="s">
+      <c r="C284" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D284" s="49"/>
@@ -8478,7 +8577,7 @@
         <f>SUM(B288:B302)</f>
         <v>0</v>
       </c>
-      <c r="C303" s="94" t="s">
+      <c r="C303" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D303" s="49"/>
@@ -8616,7 +8715,7 @@
         <f>SUM(B307:B321)</f>
         <v>0</v>
       </c>
-      <c r="C322" s="94" t="s">
+      <c r="C322" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D322" s="49"/>
@@ -8754,7 +8853,7 @@
         <f>SUM(B326:B340)</f>
         <v>0</v>
       </c>
-      <c r="C341" s="94" t="s">
+      <c r="C341" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D341" s="49"/>
@@ -8892,7 +8991,7 @@
         <f>SUM(B345:B359)</f>
         <v>0</v>
       </c>
-      <c r="C360" s="94" t="s">
+      <c r="C360" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D360" s="49"/>
@@ -9030,7 +9129,7 @@
         <f>SUM(B364:B378)</f>
         <v>0</v>
       </c>
-      <c r="C379" s="94" t="s">
+      <c r="C379" s="90" t="s">
         <v>34</v>
       </c>
       <c r="D379" s="49"/>
@@ -9042,7 +9141,7 @@
       <c r="D380" s="50"/>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="93" t="s">
+      <c r="A381" s="89" t="s">
         <v>35</v>
       </c>
     </row>

--- a/Docs/planification-Projet-Hanieh Mohajerani.xlsx
+++ b/Docs/planification-Projet-Hanieh Mohajerani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours-Semestre\Semestres\Semestre 1-2\Projet-Module-C#\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC79EB8-B8AE-43B0-8A6C-84A863302498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB34F13-55C5-4881-BA2D-A924F4D5FCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="83">
   <si>
     <t>Module :</t>
   </si>
@@ -211,9 +211,6 @@
     <t>3)Création du vaisseau du joueur</t>
   </si>
   <si>
-    <t>5)La classe Missile</t>
-  </si>
-  <si>
     <t>6)Tir du joueur</t>
   </si>
   <si>
@@ -301,7 +298,25 @@
     <t xml:space="preserve"> commence la partie La classe Missile</t>
   </si>
   <si>
-    <t>j'ai commencé la La classe Missile</t>
+    <t>j'ai commencé la La classe Missile,et j'ai crée la  classe Missile pour permettre au joueur de tirer</t>
+  </si>
+  <si>
+    <t>j'ai encor travailé sur la position de objet pour aller gouch et droit</t>
+  </si>
+  <si>
+    <t>5)La classe Missile                                                                                                       08.02.2024</t>
+  </si>
+  <si>
+    <t>creer La classe Missile</t>
+  </si>
+  <si>
+    <t>j'ai creé La classe Missile  qui hérite de la classe GameObject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corrige le cod pour tirer </t>
+  </si>
+  <si>
+    <t>j'ai crée les méthodes abstraites de la classe GameObject et j'ai commencé codé pour tirer</t>
   </si>
 </sst>
 </file>
@@ -311,7 +326,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Century Gothic"/>
@@ -420,6 +435,12 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Lato"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -941,7 +962,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1207,6 +1228,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1217,9 +1241,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1938,7 +1960,7 @@
   </sheetPr>
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -2155,10 +2177,10 @@
     </row>
     <row r="19" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="79"/>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="96"/>
+      <c r="C19" s="97"/>
       <c r="D19" s="60"/>
       <c r="E19" s="60"/>
       <c r="F19" s="60"/>
@@ -3103,7 +3125,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="98" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16">
@@ -3112,7 +3134,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="98"/>
+      <c r="B4" s="99"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
@@ -3915,8 +3937,8 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:I281"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4006,7 +4028,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D7" s="10"/>
     </row>
@@ -4094,7 +4116,7 @@
     <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="99">
+      <c r="C17" s="95">
         <v>45316</v>
       </c>
       <c r="D17" s="9"/>
@@ -4119,7 +4141,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="20"/>
@@ -4132,7 +4154,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="20"/>
@@ -4273,7 +4295,7 @@
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="99">
+      <c r="C31" s="95">
         <v>45323</v>
       </c>
       <c r="D31" s="9"/>
@@ -4304,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="20"/>
@@ -4321,7 +4343,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="20"/>
@@ -4413,20 +4435,28 @@
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="93" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="10"/>
+      <c r="B46" s="2">
+        <v>2</v>
+      </c>
+      <c r="C46" s="92" t="s">
+        <v>79</v>
+      </c>
       <c r="D46" s="10"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="10"/>
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="92" t="s">
+        <v>81</v>
+      </c>
       <c r="D47" s="10"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -4477,7 +4507,7 @@
       </c>
       <c r="B55" s="12">
         <f>SUM(B45:B54)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C55" s="88" t="s">
         <v>34</v>
@@ -4518,7 +4548,7 @@
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="93" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D59" s="9"/>
     </row>
@@ -4728,7 +4758,7 @@
       <c r="A87" s="5"/>
       <c r="B87" s="4"/>
       <c r="C87" s="93" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D87" s="9"/>
     </row>
@@ -4833,7 +4863,7 @@
       <c r="A101" s="5"/>
       <c r="B101" s="4"/>
       <c r="C101" s="93" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D101" s="9"/>
     </row>
@@ -5043,7 +5073,7 @@
       <c r="A129" s="5"/>
       <c r="B129" s="4"/>
       <c r="C129" s="93" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D129" s="9"/>
     </row>
@@ -5148,7 +5178,7 @@
       <c r="A143" s="5"/>
       <c r="B143" s="4"/>
       <c r="C143" s="93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D143" s="9"/>
     </row>
@@ -5253,7 +5283,7 @@
       <c r="A157" s="5"/>
       <c r="B157" s="4"/>
       <c r="C157" s="93" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D157" s="9"/>
     </row>
@@ -5358,7 +5388,7 @@
       <c r="A171" s="5"/>
       <c r="B171" s="4"/>
       <c r="C171" s="93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D171" s="9"/>
     </row>
@@ -5463,7 +5493,7 @@
       <c r="A185" s="5"/>
       <c r="B185" s="4"/>
       <c r="C185" s="93" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D185" s="9"/>
     </row>
@@ -5568,7 +5598,7 @@
       <c r="A199" s="5"/>
       <c r="B199" s="4"/>
       <c r="C199" s="93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D199" s="9"/>
     </row>
@@ -5673,7 +5703,7 @@
       <c r="A213" s="5"/>
       <c r="B213" s="4"/>
       <c r="C213" s="93" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D213" s="9"/>
     </row>
@@ -5778,7 +5808,7 @@
       <c r="A227" s="5"/>
       <c r="B227" s="4"/>
       <c r="C227" s="93" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D227" s="9"/>
     </row>
@@ -5883,7 +5913,7 @@
       <c r="A241" s="5"/>
       <c r="B241" s="4"/>
       <c r="C241" s="93" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D241" s="9"/>
     </row>
@@ -5915,7 +5945,7 @@
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="92" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D246" s="10"/>
     </row>
@@ -5990,7 +6020,7 @@
       <c r="A255" s="5"/>
       <c r="B255" s="4"/>
       <c r="C255" s="93" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D255" s="9"/>
     </row>
@@ -6095,7 +6125,7 @@
       <c r="A269" s="5"/>
       <c r="B269" s="4"/>
       <c r="C269" s="93" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D269" s="9"/>
     </row>
@@ -6234,8 +6264,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:I381"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6284,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="93" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="9"/>
     </row>
@@ -6296,7 +6326,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="10"/>
     </row>
@@ -6308,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="10"/>
     </row>
@@ -6320,7 +6350,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D6" s="10"/>
     </row>
@@ -6330,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="10"/>
     </row>
@@ -6455,7 +6485,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="10"/>
     </row>
@@ -6467,7 +6497,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D24" s="10"/>
       <c r="E24" s="20"/>
@@ -6482,7 +6512,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" s="10"/>
       <c r="E25" s="20"/>
@@ -6689,17 +6719,17 @@
         <v>2</v>
       </c>
       <c r="C42" s="92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D42" s="10"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2">
         <v>1</v>
       </c>
       <c r="C43" s="92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D43" s="10"/>
     </row>
@@ -6830,21 +6860,37 @@
       <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="10"/>
+      <c r="A61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="2">
+        <v>2</v>
+      </c>
+      <c r="C61" s="92" t="s">
+        <v>77</v>
+      </c>
       <c r="D61" s="10"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="10"/>
+      <c r="A62" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1</v>
+      </c>
+      <c r="C62" s="92" t="s">
+        <v>80</v>
+      </c>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="10"/>
+      <c r="B63" s="2">
+        <v>1</v>
+      </c>
+      <c r="C63" s="100" t="s">
+        <v>82</v>
+      </c>
       <c r="D63" s="10"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -6919,7 +6965,7 @@
       </c>
       <c r="B75" s="48">
         <f>SUM(B60:B74)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C75" s="90" t="s">
         <v>34</v>

--- a/Docs/planification-Projet-Hanieh Mohajerani.xlsx
+++ b/Docs/planification-Projet-Hanieh Mohajerani.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours-Semestre\Semestres\Semestre 1-2\Projet-Module-C#\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB34F13-55C5-4881-BA2D-A924F4D5FCAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6556CE38-71A5-4478-B1E8-2B24A146259F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="85">
   <si>
     <t>Module :</t>
   </si>
@@ -184,9 +184,6 @@
     <t>4) Déplacement du joueur</t>
   </si>
   <si>
-    <t>7)Refactoring SpaceShip et Missile¶</t>
-  </si>
-  <si>
     <t>10)Collisions - Mise en place</t>
   </si>
   <si>
@@ -209,9 +206,6 @@
   </si>
   <si>
     <t>3)Création du vaisseau du joueur</t>
-  </si>
-  <si>
-    <t>6)Tir du joueur</t>
   </si>
   <si>
     <t>8)Gestion de l’option Pause</t>
@@ -317,6 +311,18 @@
   </si>
   <si>
     <t>j'ai crée les méthodes abstraites de la classe GameObject et j'ai commencé codé pour tirer</t>
+  </si>
+  <si>
+    <t>vacance</t>
+  </si>
+  <si>
+    <t>6)Tir du joueur      7)Refactoring SpaceShip et Missile</t>
+  </si>
+  <si>
+    <t>vacances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">continuer tire du jouer </t>
   </si>
 </sst>
 </file>
@@ -968,15 +974,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -984,138 +990,137 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="2" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="7" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="3" fillId="10" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1131,23 +1136,23 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1158,7 +1163,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="8" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1173,10 +1178,10 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1184,17 +1189,16 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="15" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1202,26 +1206,26 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1231,17 +1235,25 @@
     <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -1958,7 +1970,7 @@
   <sheetPr codeName="Feuil1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
@@ -1966,1037 +1978,608 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="58" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="88.5703125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" style="58" customWidth="1"/>
-    <col min="5" max="6" width="11.5703125" style="58"/>
-    <col min="7" max="7" width="3.28515625" style="58" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="58"/>
+    <col min="1" max="1" width="16.5703125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="88.5703125" style="57" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" style="57" customWidth="1"/>
+    <col min="5" max="6" width="11.5703125" style="57"/>
+    <col min="7" max="7" width="3.28515625" style="57" customWidth="1"/>
+    <col min="8" max="16384" width="11.5703125" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="55"/>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="57"/>
+      <c r="A1" s="54"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="60"/>
     </row>
     <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="58"/>
+      <c r="B4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="58"/>
+      <c r="B5" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="65" t="s">
+      <c r="C5" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
     </row>
     <row r="6" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="58"/>
+      <c r="B6" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="60"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
+      <c r="A7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
     </row>
     <row r="8" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
+      <c r="A8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60"/>
     </row>
     <row r="9" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
-      <c r="B9" s="62" t="s">
+      <c r="A9" s="58"/>
+      <c r="B9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="67">
         <v>45309</v>
       </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="60"/>
     </row>
     <row r="10" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="59"/>
-      <c r="B10" s="69" t="s">
+      <c r="A10" s="58"/>
+      <c r="B10" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="70">
+      <c r="C10" s="69">
         <v>45443</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
     </row>
     <row r="11" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="69" t="s">
+      <c r="A11" s="58"/>
+      <c r="B11" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="71">
+      <c r="C11" s="70">
         <v>20</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="60"/>
     </row>
     <row r="12" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
-      <c r="B12" s="64" t="s">
+      <c r="A12" s="58"/>
+      <c r="B12" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="72">
+      <c r="C12" s="71">
         <v>4</v>
       </c>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="60"/>
     </row>
     <row r="13" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="64" t="s">
+      <c r="A13" s="58"/>
+      <c r="B13" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="72">
+      <c r="C13" s="71">
         <v>3</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
     </row>
     <row r="14" spans="1:7" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74" t="s">
+      <c r="A14" s="58"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="60"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
+      <c r="A15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="60"/>
     </row>
     <row r="16" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="77"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="78"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="57"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="79"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-    </row>
-    <row r="19" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="79"/>
-      <c r="B19" s="96" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="76"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="77"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="56"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="78"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
+    </row>
+    <row r="19" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="78"/>
+      <c r="B19" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="61"/>
-    </row>
-    <row r="20" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="79"/>
-      <c r="B20" s="80" t="s">
+      <c r="C19" s="96"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="78"/>
+      <c r="B20" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="81" t="s">
+      <c r="C20" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
-    </row>
-    <row r="21" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="80">
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="60"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="78"/>
+      <c r="B21" s="79">
         <v>1</v>
       </c>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-    </row>
-    <row r="22" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="80">
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="60"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="78"/>
+      <c r="B22" s="79">
         <v>2</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C22" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-    </row>
-    <row r="23" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="79"/>
-      <c r="B23" s="82">
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="60"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="78"/>
+      <c r="B23" s="81">
         <v>3</v>
       </c>
-      <c r="C23" s="71" t="s">
+      <c r="C23" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-    </row>
-    <row r="24" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="79"/>
-      <c r="B24" s="80">
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="78"/>
+      <c r="B24" s="79">
         <v>4</v>
       </c>
-      <c r="C24" s="71" t="s">
+      <c r="C24" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-    </row>
-    <row r="25" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="80">
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="60"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="78"/>
+      <c r="B25" s="79">
         <v>5</v>
       </c>
-      <c r="C25" s="71" t="s">
+      <c r="C25" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-    </row>
-    <row r="26" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="82">
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="60"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="78"/>
+      <c r="B26" s="81">
         <v>6</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="61"/>
-    </row>
-    <row r="27" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
-      <c r="B27" s="80">
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="60"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A27" s="78"/>
+      <c r="B27" s="79">
         <v>7</v>
       </c>
-      <c r="C27" s="71" t="s">
+      <c r="C27" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="61"/>
-    </row>
-    <row r="28" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
-      <c r="B28" s="80">
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="60"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="78"/>
+      <c r="B28" s="79">
         <v>8</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="61"/>
-    </row>
-    <row r="29" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="82">
+      <c r="C28" s="71"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="60"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="78"/>
+      <c r="B29" s="81">
         <v>9</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="61"/>
-    </row>
-    <row r="30" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="80">
+      <c r="C29" s="71"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="60"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="78"/>
+      <c r="B30" s="79">
         <v>10</v>
       </c>
-      <c r="C30" s="71"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="61"/>
-    </row>
-    <row r="31" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="80">
+      <c r="C30" s="70"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="60"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A31" s="78"/>
+      <c r="B31" s="79">
         <v>11</v>
       </c>
-      <c r="C31" s="71"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
-    </row>
-    <row r="32" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="82">
+      <c r="C31" s="70"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="60"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="78"/>
+      <c r="B32" s="81">
         <v>12</v>
       </c>
-      <c r="C32" s="71"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
-    </row>
-    <row r="33" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
-      <c r="B33" s="80">
+      <c r="C32" s="70"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="60"/>
+    </row>
+    <row r="33" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="78"/>
+      <c r="B33" s="79">
         <v>13</v>
       </c>
-      <c r="C33" s="71"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="60"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
-    </row>
-    <row r="34" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="80">
+      <c r="C33" s="70"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="60"/>
+    </row>
+    <row r="34" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A34" s="78"/>
+      <c r="B34" s="79">
         <v>14</v>
       </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="60"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="61"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
-    </row>
-    <row r="35" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="82">
+      <c r="C34" s="71"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="60"/>
+    </row>
+    <row r="35" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A35" s="78"/>
+      <c r="B35" s="81">
         <v>15</v>
       </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
-    </row>
-    <row r="36" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="80">
+      <c r="C35" s="71"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="60"/>
+    </row>
+    <row r="36" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A36" s="78"/>
+      <c r="B36" s="79">
         <v>16</v>
       </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="60"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
-    </row>
-    <row r="37" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
-      <c r="B37" s="80">
+      <c r="C36" s="70"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="60"/>
+    </row>
+    <row r="37" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="78"/>
+      <c r="B37" s="79">
         <v>17</v>
       </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="61"/>
-      <c r="H37" s="83"/>
-      <c r="I37" s="83"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
-    </row>
-    <row r="38" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
-      <c r="B38" s="82">
+      <c r="C37" s="70"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
+    </row>
+    <row r="38" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="78"/>
+      <c r="B38" s="81">
         <v>18</v>
       </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="60"/>
-      <c r="G38" s="61"/>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
-    </row>
-    <row r="39" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
-      <c r="B39" s="80">
+      <c r="C38" s="70"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="60"/>
+    </row>
+    <row r="39" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A39" s="78"/>
+      <c r="B39" s="79">
         <v>19</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="83"/>
-      <c r="I39" s="83"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
-    </row>
-    <row r="40" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
-      <c r="B40" s="80">
+      <c r="C39" s="70"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="60"/>
+    </row>
+    <row r="40" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A40" s="78"/>
+      <c r="B40" s="79">
         <v>20</v>
       </c>
-      <c r="C40" s="72"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
-    </row>
-    <row r="41" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
-      <c r="B41" s="82">
+      <c r="C40" s="71"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="60"/>
+    </row>
+    <row r="41" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="78"/>
+      <c r="B41" s="81">
         <v>21</v>
       </c>
-      <c r="C41" s="72"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="83"/>
-      <c r="I41" s="83"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
-    </row>
-    <row r="42" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
-      <c r="B42" s="80">
+      <c r="C41" s="71"/>
+      <c r="D41" s="59"/>
+      <c r="E41" s="59"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="60"/>
+    </row>
+    <row r="42" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="78"/>
+      <c r="B42" s="79">
         <v>22</v>
       </c>
-      <c r="C42" s="71"/>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="83"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
-    </row>
-    <row r="43" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="B43" s="80">
+      <c r="C42" s="70"/>
+      <c r="D42" s="59"/>
+      <c r="E42" s="59"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="60"/>
+    </row>
+    <row r="43" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="78"/>
+      <c r="B43" s="79">
         <v>23</v>
       </c>
-      <c r="C43" s="71"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="61"/>
-      <c r="H43" s="83"/>
-      <c r="I43" s="83"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
-    </row>
-    <row r="44" spans="1:13" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
-      <c r="B44" s="82">
+      <c r="C43" s="70"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="60"/>
+    </row>
+    <row r="44" spans="1:7" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A44" s="78"/>
+      <c r="B44" s="81">
         <v>24</v>
       </c>
-      <c r="C44" s="71"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="83"/>
-      <c r="J44" s="83"/>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="83"/>
-    </row>
-    <row r="45" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="79"/>
-      <c r="B45" s="84">
+      <c r="C44" s="70"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="60"/>
+    </row>
+    <row r="45" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="78"/>
+      <c r="B45" s="82">
         <v>25</v>
       </c>
-      <c r="C45" s="85"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="83"/>
-      <c r="L45" s="83"/>
-      <c r="M45" s="83"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="79"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="60"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="83"/>
-      <c r="K46" s="83"/>
-      <c r="L46" s="83"/>
-      <c r="M46" s="83"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
-      <c r="F47" s="60"/>
-      <c r="G47" s="61"/>
-      <c r="H47" s="83"/>
-      <c r="I47" s="83"/>
-      <c r="J47" s="83"/>
-      <c r="K47" s="83"/>
-      <c r="L47" s="83"/>
-      <c r="M47" s="83"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="79"/>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
-      <c r="J48" s="83"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="83"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
-      <c r="G49" s="61"/>
-      <c r="H49" s="83"/>
-      <c r="I49" s="83"/>
-      <c r="J49" s="83"/>
-      <c r="K49" s="83"/>
-      <c r="L49" s="83"/>
-      <c r="M49" s="83"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
-      <c r="D50" s="60"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="61"/>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="83"/>
-      <c r="K50" s="83"/>
-      <c r="L50" s="83"/>
-      <c r="M50" s="83"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="60"/>
-      <c r="F51" s="60"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="83"/>
-      <c r="I51" s="83"/>
-      <c r="J51" s="83"/>
-      <c r="K51" s="83"/>
-      <c r="L51" s="83"/>
-      <c r="M51" s="83"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="60"/>
-      <c r="F52" s="60"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
-      <c r="J52" s="83"/>
-      <c r="K52" s="83"/>
-      <c r="L52" s="83"/>
-      <c r="M52" s="83"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="83"/>
-      <c r="I53" s="83"/>
-      <c r="J53" s="83"/>
-      <c r="K53" s="83"/>
-      <c r="L53" s="83"/>
-      <c r="M53" s="83"/>
-    </row>
-    <row r="54" spans="1:13" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="86"/>
-      <c r="B54" s="76"/>
-      <c r="C54" s="76"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
-      <c r="J54" s="83"/>
-      <c r="K54" s="83"/>
-      <c r="L54" s="83"/>
-      <c r="M54" s="83"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="83"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="83"/>
-      <c r="D55" s="83"/>
-      <c r="E55" s="83"/>
-      <c r="F55" s="83"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="83"/>
-      <c r="I55" s="83"/>
-      <c r="J55" s="83"/>
-      <c r="K55" s="83"/>
-      <c r="L55" s="83"/>
-      <c r="M55" s="83"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="83"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="83"/>
-      <c r="E56" s="83"/>
-      <c r="F56" s="83"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="83"/>
-      <c r="I56" s="83"/>
-      <c r="J56" s="83"/>
-      <c r="K56" s="83"/>
-      <c r="L56" s="83"/>
-      <c r="M56" s="83"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="83"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="83"/>
-      <c r="D57" s="83"/>
-      <c r="E57" s="83"/>
-      <c r="F57" s="83"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="83"/>
-      <c r="I57" s="83"/>
-      <c r="J57" s="83"/>
-      <c r="K57" s="83"/>
-      <c r="L57" s="83"/>
-      <c r="M57" s="83"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="83"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="83"/>
-      <c r="D58" s="83"/>
-      <c r="E58" s="83"/>
-      <c r="F58" s="83"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="83"/>
-      <c r="I58" s="83"/>
-      <c r="J58" s="83"/>
-      <c r="K58" s="83"/>
-      <c r="L58" s="83"/>
-      <c r="M58" s="83"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="83"/>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="83"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="83"/>
-      <c r="I59" s="83"/>
-      <c r="J59" s="83"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="83"/>
-      <c r="M59" s="83"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="83"/>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="83"/>
-      <c r="I60" s="83"/>
-      <c r="J60" s="83"/>
-      <c r="K60" s="83"/>
-      <c r="L60" s="83"/>
-      <c r="M60" s="83"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="83"/>
-      <c r="B61" s="83"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="83"/>
-      <c r="B62" s="83"/>
-      <c r="C62" s="83"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="83"/>
-      <c r="J62" s="83"/>
-      <c r="K62" s="83"/>
-      <c r="L62" s="83"/>
-      <c r="M62" s="83"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="83"/>
-      <c r="B63" s="83"/>
-      <c r="C63" s="83"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="83"/>
-      <c r="J63" s="83"/>
-      <c r="K63" s="83"/>
-      <c r="L63" s="83"/>
-      <c r="M63" s="83"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="83"/>
-      <c r="B64" s="83"/>
-      <c r="C64" s="83"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="83"/>
-      <c r="K64" s="83"/>
-      <c r="L64" s="83"/>
-      <c r="M64" s="83"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="83"/>
-      <c r="B65" s="83"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="83"/>
-      <c r="I65" s="83"/>
-      <c r="J65" s="83"/>
-      <c r="K65" s="83"/>
-      <c r="L65" s="83"/>
-      <c r="M65" s="83"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="83"/>
-      <c r="B66" s="83"/>
-      <c r="C66" s="83"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="83"/>
-      <c r="K66" s="83"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="83"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="83"/>
-      <c r="B67" s="83"/>
-      <c r="C67" s="83"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="83"/>
-      <c r="K67" s="83"/>
-      <c r="L67" s="83"/>
-      <c r="M67" s="83"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="83"/>
-      <c r="B68" s="83"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
-      <c r="G68" s="83"/>
-      <c r="H68" s="83"/>
-      <c r="I68" s="83"/>
-      <c r="J68" s="83"/>
-      <c r="K68" s="83"/>
-      <c r="L68" s="83"/>
-      <c r="M68" s="83"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="83"/>
-      <c r="B69" s="83"/>
-      <c r="C69" s="83"/>
-      <c r="D69" s="83"/>
-      <c r="E69" s="83"/>
-      <c r="F69" s="83"/>
-      <c r="G69" s="83"/>
-      <c r="H69" s="83"/>
-      <c r="I69" s="83"/>
-      <c r="J69" s="83"/>
-      <c r="K69" s="83"/>
-      <c r="L69" s="83"/>
-      <c r="M69" s="83"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="83"/>
-      <c r="B70" s="83"/>
-      <c r="C70" s="83"/>
-      <c r="D70" s="83"/>
-      <c r="E70" s="83"/>
-      <c r="F70" s="83"/>
-      <c r="G70" s="83"/>
-      <c r="H70" s="83"/>
-      <c r="I70" s="83"/>
-      <c r="J70" s="83"/>
-      <c r="K70" s="83"/>
-      <c r="L70" s="83"/>
-      <c r="M70" s="83"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="83"/>
-      <c r="B71" s="83"/>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83"/>
-      <c r="E71" s="83"/>
-      <c r="F71" s="83"/>
-      <c r="G71" s="83"/>
-      <c r="H71" s="83"/>
-      <c r="I71" s="83"/>
-      <c r="J71" s="83"/>
-      <c r="K71" s="83"/>
-      <c r="L71" s="83"/>
-      <c r="M71" s="83"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="83"/>
-      <c r="B72" s="83"/>
-      <c r="C72" s="83"/>
-      <c r="D72" s="83"/>
-      <c r="E72" s="83"/>
-      <c r="F72" s="83"/>
-      <c r="G72" s="83"/>
-      <c r="H72" s="83"/>
-      <c r="I72" s="83"/>
-      <c r="J72" s="83"/>
-      <c r="K72" s="83"/>
-      <c r="L72" s="83"/>
-      <c r="M72" s="83"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="83"/>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
-      <c r="G73" s="83"/>
-      <c r="H73" s="83"/>
-      <c r="I73" s="83"/>
-      <c r="J73" s="83"/>
-      <c r="K73" s="83"/>
-      <c r="L73" s="83"/>
-      <c r="M73" s="83"/>
+      <c r="C45" s="83"/>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="60"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="78"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="60"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="78"/>
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="60"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="78"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="60"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="78"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="60"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="78"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="59"/>
+      <c r="D50" s="59"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="60"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="78"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="60"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="78"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="59"/>
+      <c r="F52" s="59"/>
+      <c r="G52" s="60"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="78"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
+    </row>
+    <row r="54" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="84"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="75"/>
+      <c r="F54" s="75"/>
+      <c r="G54" s="76"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
@@ -3016,27 +2599,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -3066,27 +2649,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3104,10 +2687,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="1.5703125" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="29" customWidth="1"/>
-    <col min="2" max="2" width="51.28515625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" style="29" customWidth="1"/>
-    <col min="4" max="16384" width="1.5703125" style="29"/>
+    <col min="1" max="1" width="17.85546875" style="20" customWidth="1"/>
+    <col min="2" max="2" width="51.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="1.5703125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -3125,7 +2708,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="97" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16">
@@ -3134,24 +2717,14 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="99"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
-      <c r="D4" s="30"/>
-    </row>
-    <row r="5" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-    </row>
-    <row r="14" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="20"/>
-    </row>
-    <row r="15" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="20"/>
+      <c r="D4" s="29"/>
     </row>
     <row r="16" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3209,7 +2782,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Feuil4"/>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -3217,11 +2790,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="87" style="29" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="21.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="87" style="20" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3232,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17"/>
-      <c r="D1" s="87"/>
+      <c r="D1" s="85"/>
     </row>
     <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -3248,61 +2821,61 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" s="53" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="52" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="11"/>
@@ -3325,179 +2898,113 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="36"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="36"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="20"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="41"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="33"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="30"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A31" s="40"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="40"/>
+      <c r="D31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -3556,7 +3063,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Feuil8"/>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
@@ -3564,319 +3071,253 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="87" style="29" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="21.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="87" style="20" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="44">
+      <c r="B1" s="43">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="54"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-    </row>
-    <row r="16" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-    </row>
-    <row r="17" spans="1:9" s="53" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+    </row>
+    <row r="16" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+    </row>
+    <row r="17" spans="1:8" s="52" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="47">
         <f>SUM(B3:B17)</f>
         <v>0</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-    </row>
-    <row r="19" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="36"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="36"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="36"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="36"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="20"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="20"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+    </row>
+    <row r="19" spans="1:8" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="33"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="30"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="5">
@@ -3935,19 +3376,19 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D11276-A30D-4F88-A164-60ED4A197532}">
   <sheetPr codeName="Feuil5"/>
-  <dimension ref="A1:I281"/>
+  <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="87" style="29" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="21.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="87" style="20" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3958,7 +3399,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="17"/>
-      <c r="D1" s="87"/>
+      <c r="D1" s="85"/>
     </row>
     <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -3974,97 +3415,97 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="91">
+      <c r="C3" s="89">
         <v>45309</v>
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="92" t="s">
-        <v>41</v>
+      <c r="C4" s="90" t="s">
+        <v>40</v>
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="92" t="s">
+      <c r="C5" s="90" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="D5" s="94" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="92" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="92"/>
-    </row>
-    <row r="7" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="90"/>
+    </row>
+    <row r="7" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="92" t="s">
-        <v>65</v>
+      <c r="C7" s="90" t="s">
+        <v>63</v>
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
-      <c r="C8" s="92" t="s">
-        <v>44</v>
+      <c r="C8" s="90" t="s">
+        <v>43</v>
       </c>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="92" t="s">
-        <v>45</v>
+      <c r="C9" s="90" t="s">
+        <v>44</v>
       </c>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" s="53" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" s="52" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="11"/>
@@ -4078,7 +3519,7 @@
         <f>SUM(B3:B12)</f>
         <v>5</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="13"/>
@@ -4097,7 +3538,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="87"/>
+      <c r="D15" s="85"/>
     </row>
     <row r="16" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
@@ -4113,123 +3554,104 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="95">
+      <c r="C17" s="93">
         <v>45316</v>
       </c>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="2">
         <v>2</v>
       </c>
-      <c r="C18" s="93" t="s">
-        <v>46</v>
+      <c r="C18" s="91" t="s">
+        <v>45</v>
       </c>
       <c r="D18" s="10"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B19" s="2">
         <v>2</v>
       </c>
-      <c r="C19" s="92" t="s">
-        <v>68</v>
+      <c r="C19" s="90" t="s">
+        <v>66</v>
       </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="92" t="s">
-        <v>69</v>
+      <c r="C20" s="90" t="s">
+        <v>67</v>
       </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="33"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F21" s="34"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+    </row>
+    <row r="26" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+    </row>
+    <row r="27" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>22</v>
       </c>
@@ -4237,28 +3659,24 @@
         <f>SUM(B17:B26)</f>
         <v>4</v>
       </c>
-      <c r="C27" s="88" t="s">
+      <c r="C27" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="13"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>14</v>
       </c>
@@ -4266,14 +3684,12 @@
         <v>3</v>
       </c>
       <c r="C29" s="17"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="85"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>3</v>
       </c>
@@ -4286,109 +3702,90 @@
       <c r="D30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="20"/>
-    </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+    </row>
+    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="95">
+      <c r="C31" s="93">
         <v>45323</v>
       </c>
       <c r="D31" s="9"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="93" t="s">
+      <c r="C32" s="91" t="s">
         <v>37</v>
       </c>
       <c r="D32" s="10"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B33" s="2">
         <v>2</v>
       </c>
-      <c r="C33" s="92" t="s">
-        <v>74</v>
+      <c r="C33" s="90" t="s">
+        <v>72</v>
       </c>
       <c r="D33" s="10"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B34" s="2">
         <v>1</v>
       </c>
-      <c r="C34" s="92" t="s">
-        <v>75</v>
+      <c r="C34" s="90" t="s">
+        <v>73</v>
       </c>
       <c r="D34" s="10"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
     </row>
-    <row r="40" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="11"/>
       <c r="D40" s="11"/>
     </row>
-    <row r="41" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>22</v>
       </c>
@@ -4396,18 +3793,18 @@
         <f>SUM(B31:B40)</f>
         <v>3</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>14</v>
       </c>
@@ -4415,9 +3812,9 @@
         <v>4</v>
       </c>
       <c r="C43" s="17"/>
-      <c r="D43" s="87"/>
-    </row>
-    <row r="44" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="85"/>
+    </row>
+    <row r="44" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>3</v>
       </c>
@@ -4431,35 +3828,35 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="93" t="s">
-        <v>78</v>
+      <c r="C45" s="91" t="s">
+        <v>76</v>
       </c>
       <c r="D45" s="9"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2">
         <v>2</v>
       </c>
-      <c r="C46" s="92" t="s">
-        <v>79</v>
+      <c r="C46" s="90" t="s">
+        <v>77</v>
       </c>
       <c r="D46" s="10"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2">
         <v>2</v>
       </c>
-      <c r="C47" s="92" t="s">
-        <v>81</v>
+      <c r="C47" s="90" t="s">
+        <v>79</v>
       </c>
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="10"/>
@@ -4509,7 +3906,7 @@
         <f>SUM(B45:B54)</f>
         <v>4</v>
       </c>
-      <c r="C55" s="88" t="s">
+      <c r="C55" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D55" s="13"/>
@@ -4528,7 +3925,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="17"/>
-      <c r="D57" s="87"/>
+      <c r="D57" s="85"/>
     </row>
     <row r="58" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
@@ -4547,8 +3944,8 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="93" t="s">
-        <v>47</v>
+      <c r="C59" s="91" t="s">
+        <v>83</v>
       </c>
       <c r="D59" s="9"/>
     </row>
@@ -4614,7 +4011,7 @@
         <f>SUM(B59:B68)</f>
         <v>0</v>
       </c>
-      <c r="C69" s="88" t="s">
+      <c r="C69" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D69" s="13"/>
@@ -4633,7 +4030,7 @@
         <v>6</v>
       </c>
       <c r="C71" s="17"/>
-      <c r="D71" s="87"/>
+      <c r="D71" s="85"/>
     </row>
     <row r="72" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
@@ -4652,15 +4049,21 @@
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="93" t="s">
-        <v>38</v>
+      <c r="C73" s="91" t="s">
+        <v>82</v>
       </c>
       <c r="D73" s="9"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="10"/>
+      <c r="A74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="2">
+        <v>2</v>
+      </c>
+      <c r="C74" s="100" t="s">
+        <v>84</v>
+      </c>
       <c r="D74" s="10"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4717,9 +4120,9 @@
       </c>
       <c r="B83" s="12">
         <f>SUM(B73:B82)</f>
-        <v>0</v>
-      </c>
-      <c r="C83" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D83" s="13"/>
@@ -4738,7 +4141,7 @@
         <v>7</v>
       </c>
       <c r="C85" s="17"/>
-      <c r="D85" s="87"/>
+      <c r="D85" s="85"/>
     </row>
     <row r="86" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
@@ -4757,8 +4160,8 @@
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="93" t="s">
-        <v>48</v>
+      <c r="C87" s="91" t="s">
+        <v>46</v>
       </c>
       <c r="D87" s="9"/>
     </row>
@@ -4824,7 +4227,7 @@
         <f>SUM(B87:B96)</f>
         <v>0</v>
       </c>
-      <c r="C97" s="88" t="s">
+      <c r="C97" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D97" s="13"/>
@@ -4843,7 +4246,7 @@
         <v>8</v>
       </c>
       <c r="C99" s="17"/>
-      <c r="D99" s="87"/>
+      <c r="D99" s="85"/>
     </row>
     <row r="100" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
@@ -4862,8 +4265,8 @@
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="93" t="s">
-        <v>49</v>
+      <c r="C101" s="91" t="s">
+        <v>47</v>
       </c>
       <c r="D101" s="9"/>
     </row>
@@ -4929,7 +4332,7 @@
         <f>SUM(B101:B110)</f>
         <v>0</v>
       </c>
-      <c r="C111" s="88" t="s">
+      <c r="C111" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D111" s="13"/>
@@ -4948,7 +4351,7 @@
         <v>9</v>
       </c>
       <c r="C113" s="17"/>
-      <c r="D113" s="87"/>
+      <c r="D113" s="85"/>
     </row>
     <row r="114" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
@@ -4967,8 +4370,8 @@
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="93" t="s">
-        <v>39</v>
+      <c r="C115" s="91" t="s">
+        <v>38</v>
       </c>
       <c r="D115" s="9"/>
     </row>
@@ -5034,7 +4437,7 @@
         <f>SUM(B115:B124)</f>
         <v>0</v>
       </c>
-      <c r="C125" s="88" t="s">
+      <c r="C125" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D125" s="13"/>
@@ -5053,7 +4456,7 @@
         <v>10</v>
       </c>
       <c r="C127" s="17"/>
-      <c r="D127" s="87"/>
+      <c r="D127" s="85"/>
     </row>
     <row r="128" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
@@ -5072,8 +4475,8 @@
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="93" t="s">
-        <v>50</v>
+      <c r="C129" s="91" t="s">
+        <v>48</v>
       </c>
       <c r="D129" s="9"/>
     </row>
@@ -5139,7 +4542,7 @@
         <f>SUM(B129:B138)</f>
         <v>0</v>
       </c>
-      <c r="C139" s="88" t="s">
+      <c r="C139" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D139" s="13"/>
@@ -5158,7 +4561,7 @@
         <v>11</v>
       </c>
       <c r="C141" s="17"/>
-      <c r="D141" s="87"/>
+      <c r="D141" s="85"/>
     </row>
     <row r="142" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
@@ -5177,8 +4580,8 @@
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="93" t="s">
-        <v>51</v>
+      <c r="C143" s="91" t="s">
+        <v>49</v>
       </c>
       <c r="D143" s="9"/>
     </row>
@@ -5244,7 +4647,7 @@
         <f>SUM(B143:B152)</f>
         <v>0</v>
       </c>
-      <c r="C153" s="88" t="s">
+      <c r="C153" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D153" s="13"/>
@@ -5263,7 +4666,7 @@
         <v>12</v>
       </c>
       <c r="C155" s="17"/>
-      <c r="D155" s="87"/>
+      <c r="D155" s="85"/>
     </row>
     <row r="156" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="8" t="s">
@@ -5282,8 +4685,8 @@
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="4"/>
-      <c r="C157" s="93" t="s">
-        <v>52</v>
+      <c r="C157" s="91" t="s">
+        <v>50</v>
       </c>
       <c r="D157" s="9"/>
     </row>
@@ -5349,7 +4752,7 @@
         <f>SUM(B157:B166)</f>
         <v>0</v>
       </c>
-      <c r="C167" s="88" t="s">
+      <c r="C167" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D167" s="13"/>
@@ -5368,7 +4771,7 @@
         <v>13</v>
       </c>
       <c r="C169" s="17"/>
-      <c r="D169" s="87"/>
+      <c r="D169" s="85"/>
     </row>
     <row r="170" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="8" t="s">
@@ -5387,8 +4790,8 @@
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="93" t="s">
-        <v>53</v>
+      <c r="C171" s="91" t="s">
+        <v>51</v>
       </c>
       <c r="D171" s="9"/>
     </row>
@@ -5454,7 +4857,7 @@
         <f>SUM(B171:B180)</f>
         <v>0</v>
       </c>
-      <c r="C181" s="88" t="s">
+      <c r="C181" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D181" s="13"/>
@@ -5473,7 +4876,7 @@
         <v>14</v>
       </c>
       <c r="C183" s="17"/>
-      <c r="D183" s="87"/>
+      <c r="D183" s="85"/>
     </row>
     <row r="184" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="8" t="s">
@@ -5492,8 +4895,8 @@
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="93" t="s">
-        <v>54</v>
+      <c r="C185" s="91" t="s">
+        <v>52</v>
       </c>
       <c r="D185" s="9"/>
     </row>
@@ -5559,7 +4962,7 @@
         <f>SUM(B185:B194)</f>
         <v>0</v>
       </c>
-      <c r="C195" s="88" t="s">
+      <c r="C195" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D195" s="13"/>
@@ -5578,7 +4981,7 @@
         <v>15</v>
       </c>
       <c r="C197" s="17"/>
-      <c r="D197" s="87"/>
+      <c r="D197" s="85"/>
     </row>
     <row r="198" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
@@ -5597,8 +5000,8 @@
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5"/>
       <c r="B199" s="4"/>
-      <c r="C199" s="93" t="s">
-        <v>55</v>
+      <c r="C199" s="91" t="s">
+        <v>53</v>
       </c>
       <c r="D199" s="9"/>
     </row>
@@ -5664,7 +5067,7 @@
         <f>SUM(B199:B208)</f>
         <v>0</v>
       </c>
-      <c r="C209" s="88" t="s">
+      <c r="C209" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D209" s="13"/>
@@ -5683,7 +5086,7 @@
         <v>16</v>
       </c>
       <c r="C211" s="17"/>
-      <c r="D211" s="87"/>
+      <c r="D211" s="85"/>
     </row>
     <row r="212" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="8" t="s">
@@ -5702,8 +5105,8 @@
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="5"/>
       <c r="B213" s="4"/>
-      <c r="C213" s="93" t="s">
-        <v>56</v>
+      <c r="C213" s="91" t="s">
+        <v>54</v>
       </c>
       <c r="D213" s="9"/>
     </row>
@@ -5769,7 +5172,7 @@
         <f>SUM(B213:B222)</f>
         <v>0</v>
       </c>
-      <c r="C223" s="88" t="s">
+      <c r="C223" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D223" s="13"/>
@@ -5788,7 +5191,7 @@
         <v>17</v>
       </c>
       <c r="C225" s="17"/>
-      <c r="D225" s="87"/>
+      <c r="D225" s="85"/>
     </row>
     <row r="226" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="8" t="s">
@@ -5807,8 +5210,8 @@
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="5"/>
       <c r="B227" s="4"/>
-      <c r="C227" s="93" t="s">
-        <v>57</v>
+      <c r="C227" s="91" t="s">
+        <v>55</v>
       </c>
       <c r="D227" s="9"/>
     </row>
@@ -5874,7 +5277,7 @@
         <f>SUM(B227:B236)</f>
         <v>0</v>
       </c>
-      <c r="C237" s="88" t="s">
+      <c r="C237" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D237" s="13"/>
@@ -5893,7 +5296,7 @@
         <v>18</v>
       </c>
       <c r="C239" s="17"/>
-      <c r="D239" s="87"/>
+      <c r="D239" s="85"/>
     </row>
     <row r="240" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="8" t="s">
@@ -5912,8 +5315,8 @@
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="5"/>
       <c r="B241" s="4"/>
-      <c r="C241" s="93" t="s">
-        <v>58</v>
+      <c r="C241" s="91" t="s">
+        <v>56</v>
       </c>
       <c r="D241" s="9"/>
     </row>
@@ -5944,8 +5347,8 @@
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
-      <c r="C246" s="92" t="s">
-        <v>59</v>
+      <c r="C246" s="90" t="s">
+        <v>57</v>
       </c>
       <c r="D246" s="10"/>
     </row>
@@ -5981,7 +5384,7 @@
         <f>SUM(B241:B250)</f>
         <v>0</v>
       </c>
-      <c r="C251" s="88" t="s">
+      <c r="C251" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D251" s="13"/>
@@ -6000,7 +5403,7 @@
         <v>19</v>
       </c>
       <c r="C253" s="17"/>
-      <c r="D253" s="87"/>
+      <c r="D253" s="85"/>
     </row>
     <row r="254" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="8" t="s">
@@ -6019,8 +5422,8 @@
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="5"/>
       <c r="B255" s="4"/>
-      <c r="C255" s="93" t="s">
-        <v>60</v>
+      <c r="C255" s="91" t="s">
+        <v>58</v>
       </c>
       <c r="D255" s="9"/>
     </row>
@@ -6086,7 +5489,7 @@
         <f>SUM(B255:B264)</f>
         <v>0</v>
       </c>
-      <c r="C265" s="88" t="s">
+      <c r="C265" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D265" s="13"/>
@@ -6105,7 +5508,7 @@
         <v>20</v>
       </c>
       <c r="C267" s="17"/>
-      <c r="D267" s="87"/>
+      <c r="D267" s="85"/>
     </row>
     <row r="268" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="8" t="s">
@@ -6124,8 +5527,8 @@
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="5"/>
       <c r="B269" s="4"/>
-      <c r="C269" s="93" t="s">
-        <v>61</v>
+      <c r="C269" s="91" t="s">
+        <v>59</v>
       </c>
       <c r="D269" s="9"/>
     </row>
@@ -6191,7 +5594,7 @@
         <f>SUM(B269:B278)</f>
         <v>0</v>
       </c>
-      <c r="C279" s="88" t="s">
+      <c r="C279" s="86" t="s">
         <v>34</v>
       </c>
       <c r="D279" s="13"/>
@@ -6203,7 +5606,7 @@
       <c r="D280" s="14"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="89" t="s">
+      <c r="A281" s="87" t="s">
         <v>35</v>
       </c>
     </row>
@@ -6262,502 +5665,458 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A1FACD4-897A-44EA-864E-F5888161E5CD}">
   <sheetPr codeName="Feuil9"/>
-  <dimension ref="A1:I381"/>
+  <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.42578125" style="29" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="87" style="29" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="29" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="21.42578125" style="20" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="20" customWidth="1"/>
+    <col min="3" max="3" width="87" style="20" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" style="20" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="44">
+      <c r="B1" s="43">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="54">
+      <c r="D1" s="53">
         <f>Donnees!$C$9</f>
         <v>45309</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="93" t="s">
-        <v>62</v>
+      <c r="C3" s="91" t="s">
+        <v>60</v>
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="92" t="s">
-        <v>63</v>
+      <c r="C4" s="90" t="s">
+        <v>61</v>
       </c>
       <c r="D4" s="10"/>
     </row>
-    <row r="5" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>66</v>
+      <c r="C5" s="52" t="s">
+        <v>64</v>
       </c>
       <c r="D5" s="10"/>
     </row>
-    <row r="6" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="92" t="s">
-        <v>64</v>
+      <c r="C6" s="90" t="s">
+        <v>62</v>
       </c>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" s="53" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="52" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="92" t="s">
-        <v>67</v>
+      <c r="C7" s="90" t="s">
+        <v>65</v>
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
     </row>
-    <row r="13" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
     </row>
-    <row r="14" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
     </row>
-    <row r="15" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-    </row>
-    <row r="16" spans="1:4" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-    </row>
-    <row r="17" spans="1:9" s="53" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+    </row>
+    <row r="16" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+    </row>
+    <row r="17" spans="1:8" s="52" customFormat="1" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
     </row>
-    <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="48">
+      <c r="B18" s="47">
         <f>SUM(B3:B17)</f>
         <v>5</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="49"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
+      <c r="D18" s="48"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="44">
+      <c r="B20" s="43">
         <v>2</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="54">
+      <c r="D20" s="53">
         <f>$D$1+7</f>
         <v>45316</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46" t="s">
+    <row r="21" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="4"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="2">
         <v>2</v>
       </c>
-      <c r="C23" s="92" t="s">
-        <v>70</v>
+      <c r="C23" s="90" t="s">
+        <v>68</v>
       </c>
       <c r="D23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B24" s="2">
         <v>1</v>
       </c>
-      <c r="C24" s="92" t="s">
-        <v>71</v>
+      <c r="C24" s="90" t="s">
+        <v>69</v>
       </c>
       <c r="D24" s="10"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="92" t="s">
-        <v>72</v>
+      <c r="C25" s="90" t="s">
+        <v>70</v>
       </c>
       <c r="D25" s="10"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
+    </row>
+    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F26" s="34"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F27" s="36"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="20"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F30" s="36"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="20"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F31" s="36"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="20"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F32" s="36"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="20"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="20"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="36"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+    </row>
+    <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="20"/>
-    </row>
-    <row r="37" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="48" t="s">
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B37" s="48">
+      <c r="B37" s="47">
         <f>SUM(B22:B36)</f>
         <v>4</v>
       </c>
-      <c r="C37" s="90" t="s">
+      <c r="C37" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="50"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
+      <c r="D37" s="48"/>
+    </row>
+    <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="49"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+    </row>
+    <row r="39" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="44">
+      <c r="B39" s="43">
         <v>3</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="54">
+      <c r="D39" s="53">
         <f>$D$20+7</f>
         <v>45323</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-    </row>
-    <row r="40" spans="1:9" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="46" t="s">
+    </row>
+    <row r="40" spans="1:8" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="B40" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="46" t="s">
+      <c r="C40" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D40" s="46" t="s">
+      <c r="D40" s="45" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="4"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="2">
         <v>2</v>
       </c>
-      <c r="C42" s="92" t="s">
-        <v>73</v>
+      <c r="C42" s="90" t="s">
+        <v>71</v>
       </c>
       <c r="D42" s="10"/>
     </row>
-    <row r="43" spans="1:9" ht="27" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2">
         <v>1</v>
       </c>
-      <c r="C43" s="92" t="s">
-        <v>76</v>
+      <c r="C43" s="90" t="s">
+        <v>74</v>
       </c>
       <c r="D43" s="10"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="10"/>
@@ -6788,16 +6147,16 @@
       <c r="D52" s="10"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="51"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
     </row>
     <row r="55" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
@@ -6806,50 +6165,50 @@
       <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="48" t="s">
+      <c r="A56" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B56" s="48">
+      <c r="B56" s="47">
         <f>SUM(B41:B55)</f>
         <v>3</v>
       </c>
-      <c r="C56" s="90" t="s">
+      <c r="C56" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="49"/>
+      <c r="D56" s="48"/>
     </row>
     <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="50"/>
-      <c r="B57" s="50"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="50"/>
+      <c r="A57" s="49"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
+      <c r="D57" s="49"/>
     </row>
     <row r="58" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="43" t="s">
+      <c r="A58" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="44">
+      <c r="B58" s="43">
         <v>4</v>
       </c>
-      <c r="C58" s="45" t="s">
+      <c r="C58" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D58" s="54">
+      <c r="D58" s="53">
         <f>$D$39+7</f>
         <v>45330</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="46" t="s">
+      <c r="A59" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="47" t="s">
+      <c r="B59" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C59" s="46" t="s">
+      <c r="C59" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6866,8 +6225,8 @@
       <c r="B61" s="2">
         <v>2</v>
       </c>
-      <c r="C61" s="92" t="s">
-        <v>77</v>
+      <c r="C61" s="90" t="s">
+        <v>75</v>
       </c>
       <c r="D61" s="10"/>
     </row>
@@ -6878,18 +6237,18 @@
       <c r="B62" s="2">
         <v>1</v>
       </c>
-      <c r="C62" s="92" t="s">
-        <v>80</v>
+      <c r="C62" s="90" t="s">
+        <v>78</v>
       </c>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2">
         <v>1</v>
       </c>
-      <c r="C63" s="100" t="s">
-        <v>82</v>
+      <c r="C63" s="94" t="s">
+        <v>80</v>
       </c>
       <c r="D63" s="10"/>
     </row>
@@ -6942,16 +6301,16 @@
       <c r="D71" s="10"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="52"/>
-      <c r="D72" s="52"/>
+      <c r="A72" s="50"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="51"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="B73" s="51"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="52"/>
+      <c r="A73" s="50"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
     </row>
     <row r="74" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
@@ -6960,57 +6319,59 @@
       <c r="D74" s="11"/>
     </row>
     <row r="75" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="48" t="s">
+      <c r="A75" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B75" s="48">
+      <c r="B75" s="47">
         <f>SUM(B60:B74)</f>
         <v>4</v>
       </c>
-      <c r="C75" s="90" t="s">
+      <c r="C75" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D75" s="49"/>
+      <c r="D75" s="48"/>
     </row>
     <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="50"/>
-      <c r="B76" s="50"/>
-      <c r="C76" s="50"/>
-      <c r="D76" s="50"/>
+      <c r="A76" s="49"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="49"/>
     </row>
     <row r="77" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="44">
+      <c r="B77" s="43">
         <v>5</v>
       </c>
-      <c r="C77" s="45" t="s">
+      <c r="C77" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D77" s="54">
+      <c r="D77" s="53">
         <f>$D$58+7</f>
         <v>45337</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="46" t="s">
+      <c r="A78" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B78" s="47" t="s">
+      <c r="B78" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C78" s="46" t="s">
+      <c r="C78" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D78" s="46" t="s">
+      <c r="D78" s="45" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="9"/>
+      <c r="C79" s="99" t="s">
+        <v>81</v>
+      </c>
       <c r="D79" s="9"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -7080,16 +6441,16 @@
       <c r="D90" s="10"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="52"/>
-      <c r="D91" s="52"/>
+      <c r="A91" s="50"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="52"/>
-      <c r="D92" s="52"/>
+      <c r="A92" s="50"/>
+      <c r="B92" s="50"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="51"/>
     </row>
     <row r="93" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
@@ -7098,56 +6459,60 @@
       <c r="D93" s="11"/>
     </row>
     <row r="94" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="48" t="s">
+      <c r="A94" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B94" s="48">
+      <c r="B94" s="47">
         <f>SUM(B79:B93)</f>
         <v>0</v>
       </c>
-      <c r="C94" s="90" t="s">
+      <c r="C94" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D94" s="49"/>
+      <c r="D94" s="48"/>
     </row>
     <row r="95" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="50"/>
-      <c r="B95" s="50"/>
-      <c r="C95" s="50"/>
-      <c r="D95" s="50"/>
+      <c r="A95" s="49"/>
+      <c r="B95" s="49"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="49"/>
     </row>
     <row r="96" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="43" t="s">
+      <c r="A96" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="44">
+      <c r="B96" s="43">
         <v>6</v>
       </c>
-      <c r="C96" s="45" t="s">
+      <c r="C96" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D96" s="54">
+      <c r="D96" s="53">
         <f>$D$77+7</f>
         <v>45344</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="46" t="s">
+      <c r="A97" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B97" s="47" t="s">
+      <c r="B97" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C97" s="46" t="s">
+      <c r="C97" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D97" s="46" t="s">
+      <c r="D97" s="45" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="5"/>
-      <c r="B98" s="4"/>
+      <c r="A98" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B98" s="4">
+        <v>2</v>
+      </c>
       <c r="C98" s="9"/>
       <c r="D98" s="9"/>
     </row>
@@ -7218,16 +6583,16 @@
       <c r="D109" s="10"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="51"/>
-      <c r="B110" s="51"/>
-      <c r="C110" s="52"/>
-      <c r="D110" s="52"/>
+      <c r="A110" s="50"/>
+      <c r="B110" s="50"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="51"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="51"/>
-      <c r="B111" s="51"/>
-      <c r="C111" s="52"/>
-      <c r="D111" s="52"/>
+      <c r="A111" s="50"/>
+      <c r="B111" s="50"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="51"/>
     </row>
     <row r="112" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
@@ -7236,50 +6601,50 @@
       <c r="D112" s="11"/>
     </row>
     <row r="113" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="48" t="s">
+      <c r="A113" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B113" s="48">
+      <c r="B113" s="47">
         <f>SUM(B98:B112)</f>
-        <v>0</v>
-      </c>
-      <c r="C113" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D113" s="49"/>
+      <c r="D113" s="48"/>
     </row>
     <row r="114" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="50"/>
-      <c r="B114" s="50"/>
-      <c r="C114" s="50"/>
-      <c r="D114" s="50"/>
+      <c r="A114" s="49"/>
+      <c r="B114" s="49"/>
+      <c r="C114" s="49"/>
+      <c r="D114" s="49"/>
     </row>
     <row r="115" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="43" t="s">
+      <c r="A115" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B115" s="44">
+      <c r="B115" s="43">
         <v>7</v>
       </c>
-      <c r="C115" s="45" t="s">
+      <c r="C115" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D115" s="54">
+      <c r="D115" s="53">
         <f>$D$96+7</f>
         <v>45351</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="46" t="s">
+      <c r="A116" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B116" s="47" t="s">
+      <c r="B116" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C116" s="46" t="s">
+      <c r="C116" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="46" t="s">
+      <c r="D116" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7356,16 +6721,16 @@
       <c r="D128" s="10"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="51"/>
-      <c r="B129" s="51"/>
-      <c r="C129" s="52"/>
-      <c r="D129" s="52"/>
+      <c r="A129" s="50"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="51"/>
+      <c r="D129" s="51"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="51"/>
-      <c r="B130" s="51"/>
-      <c r="C130" s="52"/>
-      <c r="D130" s="52"/>
+      <c r="A130" s="50"/>
+      <c r="B130" s="50"/>
+      <c r="C130" s="51"/>
+      <c r="D130" s="51"/>
     </row>
     <row r="131" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
@@ -7374,50 +6739,50 @@
       <c r="D131" s="11"/>
     </row>
     <row r="132" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="48" t="s">
+      <c r="A132" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B132" s="48">
+      <c r="B132" s="47">
         <f>SUM(B117:B131)</f>
         <v>0</v>
       </c>
-      <c r="C132" s="90" t="s">
+      <c r="C132" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D132" s="49"/>
+      <c r="D132" s="48"/>
     </row>
     <row r="133" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="50"/>
-      <c r="B133" s="50"/>
-      <c r="C133" s="50"/>
-      <c r="D133" s="50"/>
+      <c r="A133" s="49"/>
+      <c r="B133" s="49"/>
+      <c r="C133" s="49"/>
+      <c r="D133" s="49"/>
     </row>
     <row r="134" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="43" t="s">
+      <c r="A134" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="44">
+      <c r="B134" s="43">
         <v>8</v>
       </c>
-      <c r="C134" s="45" t="s">
+      <c r="C134" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D134" s="54">
+      <c r="D134" s="53">
         <f>$D$115+7</f>
         <v>45358</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="46" t="s">
+      <c r="A135" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B135" s="47" t="s">
+      <c r="B135" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C135" s="46" t="s">
+      <c r="C135" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D135" s="46" t="s">
+      <c r="D135" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7494,16 +6859,16 @@
       <c r="D147" s="10"/>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="51"/>
-      <c r="B148" s="51"/>
-      <c r="C148" s="52"/>
-      <c r="D148" s="52"/>
+      <c r="A148" s="50"/>
+      <c r="B148" s="50"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="51"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="51"/>
-      <c r="B149" s="51"/>
-      <c r="C149" s="52"/>
-      <c r="D149" s="52"/>
+      <c r="A149" s="50"/>
+      <c r="B149" s="50"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="51"/>
     </row>
     <row r="150" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
@@ -7512,50 +6877,50 @@
       <c r="D150" s="11"/>
     </row>
     <row r="151" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="48" t="s">
+      <c r="A151" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B151" s="48">
+      <c r="B151" s="47">
         <f>SUM(B136:B150)</f>
         <v>0</v>
       </c>
-      <c r="C151" s="90" t="s">
+      <c r="C151" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D151" s="49"/>
+      <c r="D151" s="48"/>
     </row>
     <row r="152" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="50"/>
-      <c r="B152" s="50"/>
-      <c r="C152" s="50"/>
-      <c r="D152" s="50"/>
+      <c r="A152" s="49"/>
+      <c r="B152" s="49"/>
+      <c r="C152" s="49"/>
+      <c r="D152" s="49"/>
     </row>
     <row r="153" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="43" t="s">
+      <c r="A153" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B153" s="44">
+      <c r="B153" s="43">
         <v>9</v>
       </c>
-      <c r="C153" s="45" t="s">
+      <c r="C153" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D153" s="54">
+      <c r="D153" s="53">
         <f>$D$134+7</f>
         <v>45365</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="46" t="s">
+      <c r="A154" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B154" s="47" t="s">
+      <c r="B154" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C154" s="46" t="s">
+      <c r="C154" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D154" s="46" t="s">
+      <c r="D154" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7632,16 +6997,16 @@
       <c r="D166" s="10"/>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="51"/>
-      <c r="B167" s="51"/>
-      <c r="C167" s="52"/>
-      <c r="D167" s="52"/>
+      <c r="A167" s="50"/>
+      <c r="B167" s="50"/>
+      <c r="C167" s="51"/>
+      <c r="D167" s="51"/>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="51"/>
-      <c r="B168" s="51"/>
-      <c r="C168" s="52"/>
-      <c r="D168" s="52"/>
+      <c r="A168" s="50"/>
+      <c r="B168" s="50"/>
+      <c r="C168" s="51"/>
+      <c r="D168" s="51"/>
     </row>
     <row r="169" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3"/>
@@ -7650,50 +7015,50 @@
       <c r="D169" s="11"/>
     </row>
     <row r="170" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="48" t="s">
+      <c r="A170" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B170" s="48">
+      <c r="B170" s="47">
         <f>SUM(B155:B169)</f>
         <v>0</v>
       </c>
-      <c r="C170" s="90" t="s">
+      <c r="C170" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D170" s="49"/>
+      <c r="D170" s="48"/>
     </row>
     <row r="171" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="50"/>
-      <c r="B171" s="50"/>
-      <c r="C171" s="50"/>
-      <c r="D171" s="50"/>
+      <c r="A171" s="49"/>
+      <c r="B171" s="49"/>
+      <c r="C171" s="49"/>
+      <c r="D171" s="49"/>
     </row>
     <row r="172" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="43" t="s">
+      <c r="A172" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B172" s="44">
+      <c r="B172" s="43">
         <v>10</v>
       </c>
-      <c r="C172" s="45" t="s">
+      <c r="C172" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D172" s="54">
+      <c r="D172" s="53">
         <f>$D$153+7</f>
         <v>45372</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="46" t="s">
+      <c r="A173" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B173" s="47" t="s">
+      <c r="B173" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C173" s="46" t="s">
+      <c r="C173" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D173" s="46" t="s">
+      <c r="D173" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7770,16 +7135,16 @@
       <c r="D185" s="10"/>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="51"/>
-      <c r="B186" s="51"/>
-      <c r="C186" s="52"/>
-      <c r="D186" s="52"/>
+      <c r="A186" s="50"/>
+      <c r="B186" s="50"/>
+      <c r="C186" s="51"/>
+      <c r="D186" s="51"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="51"/>
-      <c r="B187" s="51"/>
-      <c r="C187" s="52"/>
-      <c r="D187" s="52"/>
+      <c r="A187" s="50"/>
+      <c r="B187" s="50"/>
+      <c r="C187" s="51"/>
+      <c r="D187" s="51"/>
     </row>
     <row r="188" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3"/>
@@ -7788,50 +7153,50 @@
       <c r="D188" s="11"/>
     </row>
     <row r="189" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="48" t="s">
+      <c r="A189" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B189" s="48">
+      <c r="B189" s="47">
         <f>SUM(B174:B188)</f>
         <v>0</v>
       </c>
-      <c r="C189" s="90" t="s">
+      <c r="C189" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D189" s="49"/>
+      <c r="D189" s="48"/>
     </row>
     <row r="190" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A190" s="50"/>
-      <c r="B190" s="50"/>
-      <c r="C190" s="50"/>
-      <c r="D190" s="50"/>
+      <c r="A190" s="49"/>
+      <c r="B190" s="49"/>
+      <c r="C190" s="49"/>
+      <c r="D190" s="49"/>
     </row>
     <row r="191" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="43" t="s">
+      <c r="A191" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B191" s="44">
+      <c r="B191" s="43">
         <v>11</v>
       </c>
-      <c r="C191" s="45" t="s">
+      <c r="C191" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D191" s="54">
+      <c r="D191" s="53">
         <f>$D$172+7</f>
         <v>45379</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="46" t="s">
+      <c r="A192" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B192" s="47" t="s">
+      <c r="B192" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C192" s="46" t="s">
+      <c r="C192" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D192" s="46" t="s">
+      <c r="D192" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -7908,16 +7273,16 @@
       <c r="D204" s="10"/>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="51"/>
-      <c r="B205" s="51"/>
-      <c r="C205" s="52"/>
-      <c r="D205" s="52"/>
+      <c r="A205" s="50"/>
+      <c r="B205" s="50"/>
+      <c r="C205" s="51"/>
+      <c r="D205" s="51"/>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="51"/>
-      <c r="B206" s="51"/>
-      <c r="C206" s="52"/>
-      <c r="D206" s="52"/>
+      <c r="A206" s="50"/>
+      <c r="B206" s="50"/>
+      <c r="C206" s="51"/>
+      <c r="D206" s="51"/>
     </row>
     <row r="207" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3"/>
@@ -7926,50 +7291,50 @@
       <c r="D207" s="11"/>
     </row>
     <row r="208" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="48" t="s">
+      <c r="A208" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B208" s="48">
+      <c r="B208" s="47">
         <f>SUM(B193:B207)</f>
         <v>0</v>
       </c>
-      <c r="C208" s="90" t="s">
+      <c r="C208" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D208" s="49"/>
+      <c r="D208" s="48"/>
     </row>
     <row r="209" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="50"/>
-      <c r="B209" s="50"/>
-      <c r="C209" s="50"/>
-      <c r="D209" s="50"/>
+      <c r="A209" s="49"/>
+      <c r="B209" s="49"/>
+      <c r="C209" s="49"/>
+      <c r="D209" s="49"/>
     </row>
     <row r="210" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="43" t="s">
+      <c r="A210" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B210" s="44">
+      <c r="B210" s="43">
         <v>12</v>
       </c>
-      <c r="C210" s="45" t="s">
+      <c r="C210" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D210" s="54">
+      <c r="D210" s="53">
         <f>$D$191+7</f>
         <v>45386</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="46" t="s">
+      <c r="A211" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B211" s="47" t="s">
+      <c r="B211" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C211" s="46" t="s">
+      <c r="C211" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D211" s="46" t="s">
+      <c r="D211" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8046,16 +7411,16 @@
       <c r="D223" s="10"/>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="51"/>
-      <c r="B224" s="51"/>
-      <c r="C224" s="52"/>
-      <c r="D224" s="52"/>
+      <c r="A224" s="50"/>
+      <c r="B224" s="50"/>
+      <c r="C224" s="51"/>
+      <c r="D224" s="51"/>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="51"/>
-      <c r="B225" s="51"/>
-      <c r="C225" s="52"/>
-      <c r="D225" s="52"/>
+      <c r="A225" s="50"/>
+      <c r="B225" s="50"/>
+      <c r="C225" s="51"/>
+      <c r="D225" s="51"/>
     </row>
     <row r="226" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3"/>
@@ -8064,50 +7429,50 @@
       <c r="D226" s="11"/>
     </row>
     <row r="227" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="48" t="s">
+      <c r="A227" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B227" s="48">
+      <c r="B227" s="47">
         <f>SUM(B212:B226)</f>
         <v>0</v>
       </c>
-      <c r="C227" s="90" t="s">
+      <c r="C227" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D227" s="49"/>
+      <c r="D227" s="48"/>
     </row>
     <row r="228" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A228" s="50"/>
-      <c r="B228" s="50"/>
-      <c r="C228" s="50"/>
-      <c r="D228" s="50"/>
+      <c r="A228" s="49"/>
+      <c r="B228" s="49"/>
+      <c r="C228" s="49"/>
+      <c r="D228" s="49"/>
     </row>
     <row r="229" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A229" s="43" t="s">
+      <c r="A229" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B229" s="44">
+      <c r="B229" s="43">
         <v>13</v>
       </c>
-      <c r="C229" s="45" t="s">
+      <c r="C229" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D229" s="54">
+      <c r="D229" s="53">
         <f>$D$210+7</f>
         <v>45393</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A230" s="46" t="s">
+      <c r="A230" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B230" s="47" t="s">
+      <c r="B230" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C230" s="46" t="s">
+      <c r="C230" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D230" s="46" t="s">
+      <c r="D230" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8184,16 +7549,16 @@
       <c r="D242" s="10"/>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A243" s="51"/>
-      <c r="B243" s="51"/>
-      <c r="C243" s="52"/>
-      <c r="D243" s="52"/>
+      <c r="A243" s="50"/>
+      <c r="B243" s="50"/>
+      <c r="C243" s="51"/>
+      <c r="D243" s="51"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A244" s="51"/>
-      <c r="B244" s="51"/>
-      <c r="C244" s="52"/>
-      <c r="D244" s="52"/>
+      <c r="A244" s="50"/>
+      <c r="B244" s="50"/>
+      <c r="C244" s="51"/>
+      <c r="D244" s="51"/>
     </row>
     <row r="245" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3"/>
@@ -8202,50 +7567,50 @@
       <c r="D245" s="11"/>
     </row>
     <row r="246" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A246" s="48" t="s">
+      <c r="A246" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B246" s="48">
+      <c r="B246" s="47">
         <f>SUM(B231:B245)</f>
         <v>0</v>
       </c>
-      <c r="C246" s="90" t="s">
+      <c r="C246" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D246" s="49"/>
+      <c r="D246" s="48"/>
     </row>
     <row r="247" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="50"/>
-      <c r="B247" s="50"/>
-      <c r="C247" s="50"/>
-      <c r="D247" s="50"/>
+      <c r="A247" s="49"/>
+      <c r="B247" s="49"/>
+      <c r="C247" s="49"/>
+      <c r="D247" s="49"/>
     </row>
     <row r="248" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A248" s="43" t="s">
+      <c r="A248" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B248" s="44">
+      <c r="B248" s="43">
         <v>14</v>
       </c>
-      <c r="C248" s="45" t="s">
+      <c r="C248" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D248" s="54">
+      <c r="D248" s="53">
         <f>$D$229+7</f>
         <v>45400</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A249" s="46" t="s">
+      <c r="A249" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B249" s="47" t="s">
+      <c r="B249" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C249" s="46" t="s">
+      <c r="C249" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D249" s="46" t="s">
+      <c r="D249" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8322,16 +7687,16 @@
       <c r="D261" s="10"/>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A262" s="51"/>
-      <c r="B262" s="51"/>
-      <c r="C262" s="52"/>
-      <c r="D262" s="52"/>
+      <c r="A262" s="50"/>
+      <c r="B262" s="50"/>
+      <c r="C262" s="51"/>
+      <c r="D262" s="51"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A263" s="51"/>
-      <c r="B263" s="51"/>
-      <c r="C263" s="52"/>
-      <c r="D263" s="52"/>
+      <c r="A263" s="50"/>
+      <c r="B263" s="50"/>
+      <c r="C263" s="51"/>
+      <c r="D263" s="51"/>
     </row>
     <row r="264" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3"/>
@@ -8340,50 +7705,50 @@
       <c r="D264" s="11"/>
     </row>
     <row r="265" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A265" s="48" t="s">
+      <c r="A265" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B265" s="48">
+      <c r="B265" s="47">
         <f>SUM(B250:B264)</f>
         <v>0</v>
       </c>
-      <c r="C265" s="90" t="s">
+      <c r="C265" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D265" s="49"/>
+      <c r="D265" s="48"/>
     </row>
     <row r="266" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A266" s="50"/>
-      <c r="B266" s="50"/>
-      <c r="C266" s="50"/>
-      <c r="D266" s="50"/>
+      <c r="A266" s="49"/>
+      <c r="B266" s="49"/>
+      <c r="C266" s="49"/>
+      <c r="D266" s="49"/>
     </row>
     <row r="267" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A267" s="43" t="s">
+      <c r="A267" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B267" s="44">
+      <c r="B267" s="43">
         <v>15</v>
       </c>
-      <c r="C267" s="45" t="s">
+      <c r="C267" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D267" s="54">
+      <c r="D267" s="53">
         <f>$D$248+7</f>
         <v>45407</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A268" s="46" t="s">
+      <c r="A268" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B268" s="47" t="s">
+      <c r="B268" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C268" s="46" t="s">
+      <c r="C268" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D268" s="46" t="s">
+      <c r="D268" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8460,16 +7825,16 @@
       <c r="D280" s="10"/>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" s="51"/>
-      <c r="B281" s="51"/>
-      <c r="C281" s="52"/>
-      <c r="D281" s="52"/>
+      <c r="A281" s="50"/>
+      <c r="B281" s="50"/>
+      <c r="C281" s="51"/>
+      <c r="D281" s="51"/>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" s="51"/>
-      <c r="B282" s="51"/>
-      <c r="C282" s="52"/>
-      <c r="D282" s="52"/>
+      <c r="A282" s="50"/>
+      <c r="B282" s="50"/>
+      <c r="C282" s="51"/>
+      <c r="D282" s="51"/>
     </row>
     <row r="283" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3"/>
@@ -8478,50 +7843,50 @@
       <c r="D283" s="11"/>
     </row>
     <row r="284" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="48" t="s">
+      <c r="A284" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B284" s="48">
+      <c r="B284" s="47">
         <f>SUM(B269:B283)</f>
         <v>0</v>
       </c>
-      <c r="C284" s="90" t="s">
+      <c r="C284" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D284" s="49"/>
+      <c r="D284" s="48"/>
     </row>
     <row r="285" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="50"/>
-      <c r="B285" s="50"/>
-      <c r="C285" s="50"/>
-      <c r="D285" s="50"/>
+      <c r="A285" s="49"/>
+      <c r="B285" s="49"/>
+      <c r="C285" s="49"/>
+      <c r="D285" s="49"/>
     </row>
     <row r="286" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A286" s="43" t="s">
+      <c r="A286" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B286" s="44">
+      <c r="B286" s="43">
         <v>16</v>
       </c>
-      <c r="C286" s="45" t="s">
+      <c r="C286" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D286" s="54">
+      <c r="D286" s="53">
         <f>$D$267+7</f>
         <v>45414</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="46" t="s">
+      <c r="A287" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B287" s="47" t="s">
+      <c r="B287" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C287" s="46" t="s">
+      <c r="C287" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D287" s="46" t="s">
+      <c r="D287" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8598,16 +7963,16 @@
       <c r="D299" s="10"/>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" s="51"/>
-      <c r="B300" s="51"/>
-      <c r="C300" s="52"/>
-      <c r="D300" s="52"/>
+      <c r="A300" s="50"/>
+      <c r="B300" s="50"/>
+      <c r="C300" s="51"/>
+      <c r="D300" s="51"/>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" s="51"/>
-      <c r="B301" s="51"/>
-      <c r="C301" s="52"/>
-      <c r="D301" s="52"/>
+      <c r="A301" s="50"/>
+      <c r="B301" s="50"/>
+      <c r="C301" s="51"/>
+      <c r="D301" s="51"/>
     </row>
     <row r="302" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3"/>
@@ -8616,50 +7981,50 @@
       <c r="D302" s="11"/>
     </row>
     <row r="303" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A303" s="48" t="s">
+      <c r="A303" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B303" s="48">
+      <c r="B303" s="47">
         <f>SUM(B288:B302)</f>
         <v>0</v>
       </c>
-      <c r="C303" s="90" t="s">
+      <c r="C303" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D303" s="49"/>
+      <c r="D303" s="48"/>
     </row>
     <row r="304" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="50"/>
-      <c r="B304" s="50"/>
-      <c r="C304" s="50"/>
-      <c r="D304" s="50"/>
+      <c r="A304" s="49"/>
+      <c r="B304" s="49"/>
+      <c r="C304" s="49"/>
+      <c r="D304" s="49"/>
     </row>
     <row r="305" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A305" s="43" t="s">
+      <c r="A305" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B305" s="44">
+      <c r="B305" s="43">
         <v>17</v>
       </c>
-      <c r="C305" s="45" t="s">
+      <c r="C305" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D305" s="54">
+      <c r="D305" s="53">
         <f>$D$286+7</f>
         <v>45421</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A306" s="46" t="s">
+      <c r="A306" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B306" s="47" t="s">
+      <c r="B306" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C306" s="46" t="s">
+      <c r="C306" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D306" s="46" t="s">
+      <c r="D306" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8736,16 +8101,16 @@
       <c r="D318" s="10"/>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A319" s="51"/>
-      <c r="B319" s="51"/>
-      <c r="C319" s="52"/>
-      <c r="D319" s="52"/>
+      <c r="A319" s="50"/>
+      <c r="B319" s="50"/>
+      <c r="C319" s="51"/>
+      <c r="D319" s="51"/>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A320" s="51"/>
-      <c r="B320" s="51"/>
-      <c r="C320" s="52"/>
-      <c r="D320" s="52"/>
+      <c r="A320" s="50"/>
+      <c r="B320" s="50"/>
+      <c r="C320" s="51"/>
+      <c r="D320" s="51"/>
     </row>
     <row r="321" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3"/>
@@ -8754,50 +8119,50 @@
       <c r="D321" s="11"/>
     </row>
     <row r="322" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A322" s="48" t="s">
+      <c r="A322" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B322" s="48">
+      <c r="B322" s="47">
         <f>SUM(B307:B321)</f>
         <v>0</v>
       </c>
-      <c r="C322" s="90" t="s">
+      <c r="C322" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D322" s="49"/>
+      <c r="D322" s="48"/>
     </row>
     <row r="323" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A323" s="50"/>
-      <c r="B323" s="50"/>
-      <c r="C323" s="50"/>
-      <c r="D323" s="50"/>
+      <c r="A323" s="49"/>
+      <c r="B323" s="49"/>
+      <c r="C323" s="49"/>
+      <c r="D323" s="49"/>
     </row>
     <row r="324" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A324" s="43" t="s">
+      <c r="A324" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B324" s="44">
+      <c r="B324" s="43">
         <v>18</v>
       </c>
-      <c r="C324" s="45" t="s">
+      <c r="C324" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D324" s="54">
+      <c r="D324" s="53">
         <f>$D$305+7</f>
         <v>45428</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A325" s="46" t="s">
+      <c r="A325" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B325" s="47" t="s">
+      <c r="B325" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C325" s="46" t="s">
+      <c r="C325" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D325" s="46" t="s">
+      <c r="D325" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -8874,16 +8239,16 @@
       <c r="D337" s="10"/>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A338" s="51"/>
-      <c r="B338" s="51"/>
-      <c r="C338" s="52"/>
-      <c r="D338" s="52"/>
+      <c r="A338" s="50"/>
+      <c r="B338" s="50"/>
+      <c r="C338" s="51"/>
+      <c r="D338" s="51"/>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A339" s="51"/>
-      <c r="B339" s="51"/>
-      <c r="C339" s="52"/>
-      <c r="D339" s="52"/>
+      <c r="A339" s="50"/>
+      <c r="B339" s="50"/>
+      <c r="C339" s="51"/>
+      <c r="D339" s="51"/>
     </row>
     <row r="340" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3"/>
@@ -8892,50 +8257,50 @@
       <c r="D340" s="11"/>
     </row>
     <row r="341" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A341" s="48" t="s">
+      <c r="A341" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B341" s="48">
+      <c r="B341" s="47">
         <f>SUM(B326:B340)</f>
         <v>0</v>
       </c>
-      <c r="C341" s="90" t="s">
+      <c r="C341" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D341" s="49"/>
+      <c r="D341" s="48"/>
     </row>
     <row r="342" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A342" s="50"/>
-      <c r="B342" s="50"/>
-      <c r="C342" s="50"/>
-      <c r="D342" s="50"/>
+      <c r="A342" s="49"/>
+      <c r="B342" s="49"/>
+      <c r="C342" s="49"/>
+      <c r="D342" s="49"/>
     </row>
     <row r="343" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A343" s="43" t="s">
+      <c r="A343" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B343" s="44">
+      <c r="B343" s="43">
         <v>19</v>
       </c>
-      <c r="C343" s="45" t="s">
+      <c r="C343" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D343" s="54">
+      <c r="D343" s="53">
         <f>$D$324+7</f>
         <v>45435</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A344" s="46" t="s">
+      <c r="A344" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B344" s="47" t="s">
+      <c r="B344" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C344" s="46" t="s">
+      <c r="C344" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D344" s="46" t="s">
+      <c r="D344" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9012,16 +8377,16 @@
       <c r="D356" s="10"/>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A357" s="51"/>
-      <c r="B357" s="51"/>
-      <c r="C357" s="52"/>
-      <c r="D357" s="52"/>
+      <c r="A357" s="50"/>
+      <c r="B357" s="50"/>
+      <c r="C357" s="51"/>
+      <c r="D357" s="51"/>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A358" s="51"/>
-      <c r="B358" s="51"/>
-      <c r="C358" s="52"/>
-      <c r="D358" s="52"/>
+      <c r="A358" s="50"/>
+      <c r="B358" s="50"/>
+      <c r="C358" s="51"/>
+      <c r="D358" s="51"/>
     </row>
     <row r="359" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3"/>
@@ -9030,50 +8395,50 @@
       <c r="D359" s="11"/>
     </row>
     <row r="360" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A360" s="48" t="s">
+      <c r="A360" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B360" s="48">
+      <c r="B360" s="47">
         <f>SUM(B345:B359)</f>
         <v>0</v>
       </c>
-      <c r="C360" s="90" t="s">
+      <c r="C360" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D360" s="49"/>
+      <c r="D360" s="48"/>
     </row>
     <row r="361" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="50"/>
-      <c r="B361" s="50"/>
-      <c r="C361" s="50"/>
-      <c r="D361" s="50"/>
+      <c r="A361" s="49"/>
+      <c r="B361" s="49"/>
+      <c r="C361" s="49"/>
+      <c r="D361" s="49"/>
     </row>
     <row r="362" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A362" s="43" t="s">
+      <c r="A362" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="B362" s="44">
+      <c r="B362" s="43">
         <v>20</v>
       </c>
-      <c r="C362" s="45" t="s">
+      <c r="C362" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="D362" s="54">
+      <c r="D362" s="53">
         <f>$D$343+7</f>
         <v>45442</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A363" s="46" t="s">
+      <c r="A363" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B363" s="47" t="s">
+      <c r="B363" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C363" s="46" t="s">
+      <c r="C363" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D363" s="46" t="s">
+      <c r="D363" s="45" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9150,16 +8515,16 @@
       <c r="D375" s="10"/>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A376" s="51"/>
-      <c r="B376" s="51"/>
-      <c r="C376" s="52"/>
-      <c r="D376" s="52"/>
+      <c r="A376" s="50"/>
+      <c r="B376" s="50"/>
+      <c r="C376" s="51"/>
+      <c r="D376" s="51"/>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A377" s="51"/>
-      <c r="B377" s="51"/>
-      <c r="C377" s="52"/>
-      <c r="D377" s="52"/>
+      <c r="A377" s="50"/>
+      <c r="B377" s="50"/>
+      <c r="C377" s="51"/>
+      <c r="D377" s="51"/>
     </row>
     <row r="378" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3"/>
@@ -9168,26 +8533,26 @@
       <c r="D378" s="11"/>
     </row>
     <row r="379" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A379" s="48" t="s">
+      <c r="A379" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B379" s="48">
+      <c r="B379" s="47">
         <f>SUM(B364:B378)</f>
         <v>0</v>
       </c>
-      <c r="C379" s="90" t="s">
+      <c r="C379" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="D379" s="49"/>
+      <c r="D379" s="48"/>
     </row>
     <row r="380" spans="1:4" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A380" s="50"/>
-      <c r="B380" s="50"/>
-      <c r="C380" s="50"/>
-      <c r="D380" s="50"/>
+      <c r="A380" s="49"/>
+      <c r="B380" s="49"/>
+      <c r="C380" s="49"/>
+      <c r="D380" s="49"/>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A381" s="89" t="s">
+      <c r="A381" s="87" t="s">
         <v>35</v>
       </c>
     </row>
@@ -9243,6 +8608,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a2a625e4713a1206e22a4c67b5bce77a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44987950040cbf76ec9c25f294fcc9dd" ns2:_="" ns3:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -9463,27 +8848,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C29126A-0525-4FCA-A870-5924A033DD5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B433C9A-8A3A-4D69-955C-F3F07BFE315A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9500,23 +8884,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C29126A-0525-4FCA-A870-5924A033DD5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/planification-Projet-Hanieh Mohajerani.xlsx
+++ b/Docs/planification-Projet-Hanieh Mohajerani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours-Semestre\Semestres\Semestre 1-2\Projet-Module-C#\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6556CE38-71A5-4478-B1E8-2B24A146259F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2C9BA9-0C68-490E-B26C-78C006FB7C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="92">
   <si>
     <t>Module :</t>
   </si>
@@ -208,9 +208,6 @@
     <t>3)Création du vaisseau du joueur</t>
   </si>
   <si>
-    <t>8)Gestion de l’option Pause</t>
-  </si>
-  <si>
     <t>9) La classe Bunker</t>
   </si>
   <si>
@@ -323,6 +320,30 @@
   </si>
   <si>
     <t xml:space="preserve">continuer tire du jouer </t>
+  </si>
+  <si>
+    <t>j'ai corrigé tres bien mon code pour missile vers haut ,ca marche très bien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j'ai fait l'excercise de matin pour segment 8 </t>
+  </si>
+  <si>
+    <t>j'ai testé avec changer les speed et ajouter certain chose dans mon méthode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j'ai commencé a ajouté les enemie </t>
+  </si>
+  <si>
+    <t>j'ai ajouté 1 enemie en haut de écran que tire automatiquement</t>
+  </si>
+  <si>
+    <t>j'ai corrigé la depelecment de missile ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8)ajouter lênemie en haut et tirer </t>
+  </si>
+  <si>
+    <t>lênemie va a gouche et droit mais il tire pas juste</t>
   </si>
 </sst>
 </file>
@@ -3378,8 +3399,8 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -3469,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D7" s="10"/>
     </row>
@@ -3582,7 +3603,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D19" s="10"/>
     </row>
@@ -3590,7 +3611,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="90" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="10"/>
       <c r="F20" s="31"/>
@@ -3733,7 +3754,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="90" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="10"/>
     </row>
@@ -3745,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="90" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D34" s="10"/>
     </row>
@@ -3832,7 +3853,7 @@
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="91" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D45" s="9"/>
     </row>
@@ -3842,7 +3863,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D46" s="10"/>
     </row>
@@ -3852,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D47" s="10"/>
     </row>
@@ -3945,7 +3966,7 @@
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="91" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D59" s="9"/>
     </row>
@@ -4050,7 +4071,7 @@
       <c r="A73" s="5"/>
       <c r="B73" s="4"/>
       <c r="C73" s="91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D73" s="9"/>
     </row>
@@ -4061,8 +4082,8 @@
       <c r="B74" s="2">
         <v>2</v>
       </c>
-      <c r="C74" s="100" t="s">
-        <v>84</v>
+      <c r="C74" s="90" t="s">
+        <v>83</v>
       </c>
       <c r="D74" s="10"/>
     </row>
@@ -4161,7 +4182,7 @@
       <c r="A87" s="5"/>
       <c r="B87" s="4"/>
       <c r="C87" s="91" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="D87" s="9"/>
     </row>
@@ -4266,7 +4287,7 @@
       <c r="A101" s="5"/>
       <c r="B101" s="4"/>
       <c r="C101" s="91" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D101" s="9"/>
     </row>
@@ -4476,7 +4497,7 @@
       <c r="A129" s="5"/>
       <c r="B129" s="4"/>
       <c r="C129" s="91" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D129" s="9"/>
     </row>
@@ -4581,7 +4602,7 @@
       <c r="A143" s="5"/>
       <c r="B143" s="4"/>
       <c r="C143" s="91" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D143" s="9"/>
     </row>
@@ -4686,7 +4707,7 @@
       <c r="A157" s="5"/>
       <c r="B157" s="4"/>
       <c r="C157" s="91" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D157" s="9"/>
     </row>
@@ -4791,7 +4812,7 @@
       <c r="A171" s="5"/>
       <c r="B171" s="4"/>
       <c r="C171" s="91" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D171" s="9"/>
     </row>
@@ -4896,7 +4917,7 @@
       <c r="A185" s="5"/>
       <c r="B185" s="4"/>
       <c r="C185" s="91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D185" s="9"/>
     </row>
@@ -5001,7 +5022,7 @@
       <c r="A199" s="5"/>
       <c r="B199" s="4"/>
       <c r="C199" s="91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D199" s="9"/>
     </row>
@@ -5106,7 +5127,7 @@
       <c r="A213" s="5"/>
       <c r="B213" s="4"/>
       <c r="C213" s="91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D213" s="9"/>
     </row>
@@ -5211,7 +5232,7 @@
       <c r="A227" s="5"/>
       <c r="B227" s="4"/>
       <c r="C227" s="91" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D227" s="9"/>
     </row>
@@ -5316,7 +5337,7 @@
       <c r="A241" s="5"/>
       <c r="B241" s="4"/>
       <c r="C241" s="91" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D241" s="9"/>
     </row>
@@ -5348,7 +5369,7 @@
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
       <c r="C246" s="90" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D246" s="10"/>
     </row>
@@ -5423,7 +5444,7 @@
       <c r="A255" s="5"/>
       <c r="B255" s="4"/>
       <c r="C255" s="91" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D255" s="9"/>
     </row>
@@ -5528,7 +5549,7 @@
       <c r="A269" s="5"/>
       <c r="B269" s="4"/>
       <c r="C269" s="91" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D269" s="9"/>
     </row>
@@ -5667,8 +5688,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="B98" sqref="B98"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C138" sqref="C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5717,7 +5738,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="91" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="9"/>
     </row>
@@ -5729,7 +5750,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="10"/>
     </row>
@@ -5741,7 +5762,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D5" s="10"/>
     </row>
@@ -5753,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="10"/>
     </row>
@@ -5763,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D7" s="10"/>
     </row>
@@ -5888,7 +5909,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="90" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="10"/>
     </row>
@@ -5900,7 +5921,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D24" s="10"/>
     </row>
@@ -5910,7 +5931,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D25" s="10"/>
       <c r="F25" s="31"/>
@@ -6078,7 +6099,7 @@
         <v>2</v>
       </c>
       <c r="C42" s="90" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D42" s="10"/>
     </row>
@@ -6088,7 +6109,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="90" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="10"/>
     </row>
@@ -6226,7 +6247,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D61" s="10"/>
     </row>
@@ -6238,7 +6259,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D62" s="10"/>
     </row>
@@ -6248,7 +6269,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="94" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D63" s="10"/>
     </row>
@@ -6369,8 +6390,8 @@
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="99" t="s">
-        <v>81</v>
+      <c r="C79" s="91" t="s">
+        <v>80</v>
       </c>
       <c r="D79" s="9"/>
     </row>
@@ -6513,12 +6534,18 @@
       <c r="B98" s="4">
         <v>2</v>
       </c>
-      <c r="C98" s="9"/>
+      <c r="C98" s="91" t="s">
+        <v>85</v>
+      </c>
       <c r="D98" s="9"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="1"/>
-      <c r="B99" s="2"/>
+      <c r="A99" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2</v>
+      </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
     </row>
@@ -6606,7 +6633,7 @@
       </c>
       <c r="B113" s="47">
         <f>SUM(B98:B112)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C113" s="88" t="s">
         <v>34</v>
@@ -6649,21 +6676,39 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="5"/>
-      <c r="B117" s="4"/>
-      <c r="C117" s="9"/>
+      <c r="A117" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117" s="4">
+        <v>2</v>
+      </c>
+      <c r="C117" s="91" t="s">
+        <v>84</v>
+      </c>
       <c r="D117" s="9"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="1"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="10"/>
+      <c r="A118" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" s="2">
+        <v>1</v>
+      </c>
+      <c r="C118" s="90" t="s">
+        <v>86</v>
+      </c>
       <c r="D118" s="10"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="1"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="10"/>
+      <c r="A119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B119" s="2">
+        <v>1</v>
+      </c>
+      <c r="C119" s="90" t="s">
+        <v>87</v>
+      </c>
       <c r="D119" s="10"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -6744,7 +6789,7 @@
       </c>
       <c r="B132" s="47">
         <f>SUM(B117:B131)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C132" s="88" t="s">
         <v>34</v>
@@ -6787,21 +6832,39 @@
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="5"/>
-      <c r="B136" s="4"/>
-      <c r="C136" s="9"/>
+      <c r="A136" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B136" s="4">
+        <v>2</v>
+      </c>
+      <c r="C136" s="99" t="s">
+        <v>88</v>
+      </c>
       <c r="D136" s="9"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="1"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="10"/>
+      <c r="A137" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B137" s="2">
+        <v>1</v>
+      </c>
+      <c r="C137" s="100" t="s">
+        <v>89</v>
+      </c>
       <c r="D137" s="10"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="1"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="10"/>
+      <c r="A138" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B138" s="2">
+        <v>1</v>
+      </c>
+      <c r="C138" s="100" t="s">
+        <v>91</v>
+      </c>
       <c r="D138" s="10"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -6882,7 +6945,7 @@
       </c>
       <c r="B151" s="47">
         <f>SUM(B136:B150)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C151" s="88" t="s">
         <v>34</v>

--- a/Docs/planification-Projet-Hanieh Mohajerani.xlsx
+++ b/Docs/planification-Projet-Hanieh Mohajerani.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours-Semestre\Semestres\Semestre 1-2\Projet-Module-C#\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2C9BA9-0C68-490E-B26C-78C006FB7C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA51BE5-A3AB-4AF6-8272-9958525B319F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="96">
   <si>
     <t>Module :</t>
   </si>
@@ -344,6 +344,18 @@
   </si>
   <si>
     <t>lênemie va a gouche et droit mais il tire pas juste</t>
+  </si>
+  <si>
+    <t>j'ai creé les murs</t>
+  </si>
+  <si>
+    <t>j'ai modifier l'objet en bas que tire juste</t>
+  </si>
+  <si>
+    <t>j'ai testé avec des chiffre differents</t>
+  </si>
+  <si>
+    <t>j'ai corrigé les missiles car avant les missiles d'enemie a marché pas juste mais ce n'a pas encore fini</t>
   </si>
 </sst>
 </file>
@@ -1257,6 +1269,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1267,14 +1287,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2210,10 +2222,10 @@
     </row>
     <row r="19" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78"/>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="96"/>
+      <c r="C19" s="98"/>
       <c r="D19" s="59"/>
       <c r="E19" s="59"/>
       <c r="F19" s="59"/>
@@ -2620,27 +2632,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2670,27 +2682,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -2729,7 +2741,7 @@
     </row>
     <row r="3" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="99" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="16">
@@ -2738,7 +2750,7 @@
     </row>
     <row r="4" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
-      <c r="B4" s="98"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="22">
         <v>0</v>
       </c>
@@ -3399,7 +3411,7 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
@@ -5688,8 +5700,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C138" sqref="C138"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="C156" sqref="C156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -6263,7 +6275,7 @@
       </c>
       <c r="D62" s="10"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="A63" s="1"/>
       <c r="B63" s="2">
         <v>1</v>
@@ -6838,7 +6850,7 @@
       <c r="B136" s="4">
         <v>2</v>
       </c>
-      <c r="C136" s="99" t="s">
+      <c r="C136" s="95" t="s">
         <v>88</v>
       </c>
       <c r="D136" s="9"/>
@@ -6850,7 +6862,7 @@
       <c r="B137" s="2">
         <v>1</v>
       </c>
-      <c r="C137" s="100" t="s">
+      <c r="C137" s="96" t="s">
         <v>89</v>
       </c>
       <c r="D137" s="10"/>
@@ -6862,7 +6874,7 @@
       <c r="B138" s="2">
         <v>1</v>
       </c>
-      <c r="C138" s="100" t="s">
+      <c r="C138" s="96" t="s">
         <v>91</v>
       </c>
       <c r="D138" s="10"/>
@@ -6988,27 +7000,51 @@
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="5"/>
-      <c r="B155" s="4"/>
-      <c r="C155" s="9"/>
+      <c r="A155" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B155" s="4">
+        <v>1</v>
+      </c>
+      <c r="C155" s="95" t="s">
+        <v>92</v>
+      </c>
       <c r="D155" s="9"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="1"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="10"/>
+    <row r="156" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" s="2">
+        <v>1</v>
+      </c>
+      <c r="C156" s="96" t="s">
+        <v>95</v>
+      </c>
       <c r="D156" s="10"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="10"/>
+      <c r="A157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B157" s="2">
+        <v>1</v>
+      </c>
+      <c r="C157" s="96" t="s">
+        <v>93</v>
+      </c>
       <c r="D157" s="10"/>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="1"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="10"/>
+      <c r="A158" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B158" s="2">
+        <v>1</v>
+      </c>
+      <c r="C158" s="96" t="s">
+        <v>94</v>
+      </c>
       <c r="D158" s="10"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -7083,7 +7119,7 @@
       </c>
       <c r="B170" s="47">
         <f>SUM(B155:B169)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C170" s="88" t="s">
         <v>34</v>
@@ -8671,26 +8707,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a2a625e4713a1206e22a4c67b5bce77a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44987950040cbf76ec9c25f294fcc9dd" ns2:_="" ns3:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8911,10 +8927,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B433C9A-8A3A-4D69-955C-F3F07BFE315A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8931,20 +8978,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B433C9A-8A3A-4D69-955C-F3F07BFE315A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/planification-Projet-Hanieh Mohajerani.xlsx
+++ b/Docs/planification-Projet-Hanieh Mohajerani.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours-Semestre\Semestres\Semestre 1-2\Projet-Module-C#\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA51BE5-A3AB-4AF6-8272-9958525B319F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98EFFA2-F9BA-43AD-A146-023C4AF6C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="99">
   <si>
     <t>Module :</t>
   </si>
@@ -356,6 +356,15 @@
   </si>
   <si>
     <t>j'ai corrigé les missiles car avant les missiles d'enemie a marché pas juste mais ce n'a pas encore fini</t>
+  </si>
+  <si>
+    <t>créer les petites enemies</t>
+  </si>
+  <si>
+    <t>position random juste</t>
+  </si>
+  <si>
+    <t>créer les missile de petites enemy</t>
   </si>
 </sst>
 </file>
@@ -2632,27 +2641,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2682,27 +2691,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3411,7 +3420,7 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
+    <sheetView topLeftCell="A77" workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
@@ -5700,8 +5709,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="C156" sqref="C156"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -7162,21 +7171,39 @@
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="5"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="9"/>
+      <c r="A174" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B174" s="4">
+        <v>1</v>
+      </c>
+      <c r="C174" s="95" t="s">
+        <v>96</v>
+      </c>
       <c r="D174" s="9"/>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="1"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="10"/>
+      <c r="A175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B175" s="2">
+        <v>1</v>
+      </c>
+      <c r="C175" s="96" t="s">
+        <v>97</v>
+      </c>
       <c r="D175" s="10"/>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="1"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="10"/>
+      <c r="A176" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B176" s="2">
+        <v>2</v>
+      </c>
+      <c r="C176" s="96" t="s">
+        <v>98</v>
+      </c>
       <c r="D176" s="10"/>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -7257,7 +7284,7 @@
       </c>
       <c r="B189" s="47">
         <f>SUM(B174:B188)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C189" s="88" t="s">
         <v>34</v>
@@ -8707,6 +8734,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a2a625e4713a1206e22a4c67b5bce77a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44987950040cbf76ec9c25f294fcc9dd" ns2:_="" ns3:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8927,27 +8974,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C29126A-0525-4FCA-A870-5924A033DD5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B433C9A-8A3A-4D69-955C-F3F07BFE315A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8964,23 +9010,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C29126A-0525-4FCA-A870-5924A033DD5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/planification-Projet-Hanieh Mohajerani.xlsx
+++ b/Docs/planification-Projet-Hanieh Mohajerani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours-Semestre\Semestres\Semestre 1-2\Projet-Module-C#\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98EFFA2-F9BA-43AD-A146-023C4AF6C1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FF2E37-FF04-4403-89A2-2DBC7A31D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="110">
   <si>
     <t>Module :</t>
   </si>
@@ -365,6 +365,39 @@
   </si>
   <si>
     <t>créer les missile de petites enemy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j'ai mit tout les petits enemis ensemble </t>
+  </si>
+  <si>
+    <t>j'ai corrige encore mes codes les enemis bouge a gauche et droit et il descend a la fin de chaque ligne</t>
+  </si>
+  <si>
+    <t>j'ai commencé de travailler sur les tirer des enemies</t>
+  </si>
+  <si>
+    <t>j'ai corrigeé les codes des missile que peut tire vers bas</t>
+  </si>
+  <si>
+    <t>vacences</t>
+  </si>
+  <si>
+    <t>j'ai travaillé encore sur les enemies qaund il touche les ecran droit il passe le limite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j'ai corrigé les errors de toucher enemies a droit car il calcule le premiere enemies pour touche l'ecran maitnent il calcule tout les enemies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">j'ai travaillé sur tirer les missiles il tire vers haut </t>
+  </si>
+  <si>
+    <t>les enemie tire vers bas car j'ai corrigé les codes et j'ai change le valwur 1 avec -1 pour y</t>
+  </si>
+  <si>
+    <t>j'ai testé mes codes et il marche bien les tirer des emissiles.</t>
+  </si>
+  <si>
+    <t>j'ai ajouté 1 classe heritage missile que il s'appelle position pour gerrer les position des missile que tire vers bas pour efface le mure</t>
   </si>
 </sst>
 </file>
@@ -2641,27 +2674,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2691,27 +2724,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -5709,8 +5742,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="B177" sqref="B177"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="C255" sqref="C255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -7327,27 +7360,51 @@
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="5"/>
-      <c r="B193" s="4"/>
-      <c r="C193" s="9"/>
+      <c r="A193" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B193" s="4">
+        <v>1</v>
+      </c>
+      <c r="C193" s="95" t="s">
+        <v>99</v>
+      </c>
       <c r="D193" s="9"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="1"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="10"/>
+    <row r="194" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B194" s="2">
+        <v>1</v>
+      </c>
+      <c r="C194" s="96" t="s">
+        <v>100</v>
+      </c>
       <c r="D194" s="10"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="1"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="10"/>
+      <c r="A195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B195" s="2">
+        <v>1</v>
+      </c>
+      <c r="C195" s="96" t="s">
+        <v>101</v>
+      </c>
       <c r="D195" s="10"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="10"/>
+      <c r="A196" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B196" s="2">
+        <v>1</v>
+      </c>
+      <c r="C196" s="96" t="s">
+        <v>102</v>
+      </c>
       <c r="D196" s="10"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -7422,7 +7479,7 @@
       </c>
       <c r="B208" s="47">
         <f>SUM(B193:B207)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C208" s="88" t="s">
         <v>34</v>
@@ -7467,7 +7524,9 @@
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="5"/>
       <c r="B212" s="4"/>
-      <c r="C212" s="9"/>
+      <c r="C212" s="95" t="s">
+        <v>82</v>
+      </c>
       <c r="D212" s="9"/>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
@@ -7605,7 +7664,9 @@
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5"/>
       <c r="B231" s="4"/>
-      <c r="C231" s="9"/>
+      <c r="C231" s="95" t="s">
+        <v>103</v>
+      </c>
       <c r="D231" s="9"/>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
@@ -7741,39 +7802,75 @@
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A250" s="5"/>
-      <c r="B250" s="4"/>
-      <c r="C250" s="9"/>
+      <c r="A250" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B250" s="4">
+        <v>1</v>
+      </c>
+      <c r="C250" s="95" t="s">
+        <v>104</v>
+      </c>
       <c r="D250" s="9"/>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A251" s="1"/>
-      <c r="B251" s="2"/>
-      <c r="C251" s="10"/>
+      <c r="A251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B251" s="2">
+        <v>1</v>
+      </c>
+      <c r="C251" s="96" t="s">
+        <v>106</v>
+      </c>
       <c r="D251" s="10"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A252" s="1"/>
-      <c r="B252" s="2"/>
-      <c r="C252" s="10"/>
+    <row r="252" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B252" s="2">
+        <v>1</v>
+      </c>
+      <c r="C252" s="96" t="s">
+        <v>105</v>
+      </c>
       <c r="D252" s="10"/>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A253" s="1"/>
-      <c r="B253" s="2"/>
-      <c r="C253" s="10"/>
+      <c r="A253" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B253" s="2">
+        <v>1</v>
+      </c>
+      <c r="C253" s="96" t="s">
+        <v>107</v>
+      </c>
       <c r="D253" s="10"/>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A254" s="1"/>
-      <c r="B254" s="2"/>
-      <c r="C254" s="10"/>
+      <c r="A254" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B254" s="2">
+        <v>1</v>
+      </c>
+      <c r="C254" s="96" t="s">
+        <v>108</v>
+      </c>
       <c r="D254" s="10"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A255" s="1"/>
-      <c r="B255" s="2"/>
-      <c r="C255" s="10"/>
+    <row r="255" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B255" s="2">
+        <v>1</v>
+      </c>
+      <c r="C255" s="96" t="s">
+        <v>109</v>
+      </c>
       <c r="D255" s="10"/>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
@@ -7836,7 +7933,7 @@
       </c>
       <c r="B265" s="47">
         <f>SUM(B250:B264)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C265" s="88" t="s">
         <v>34</v>
@@ -8734,26 +8831,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a2a625e4713a1206e22a4c67b5bce77a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44987950040cbf76ec9c25f294fcc9dd" ns2:_="" ns3:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -8974,10 +9051,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B433C9A-8A3A-4D69-955C-F3F07BFE315A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8994,20 +9102,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B433C9A-8A3A-4D69-955C-F3F07BFE315A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/planification-Projet-Hanieh Mohajerani.xlsx
+++ b/Docs/planification-Projet-Hanieh Mohajerani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours-Semestre\Semestres\Semestre 1-2\Projet-Module-C#\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09FF2E37-FF04-4403-89A2-2DBC7A31D349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296A3DA5-09AC-4086-8057-3724066BA925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="122">
   <si>
     <t>Module :</t>
   </si>
@@ -398,6 +398,42 @@
   </si>
   <si>
     <t>j'ai ajouté 1 classe heritage missile que il s'appelle position pour gerrer les position des missile que tire vers bas pour efface le mure</t>
+  </si>
+  <si>
+    <t>j'ai continu a travailler sur les misile qand il touche les mur</t>
+  </si>
+  <si>
+    <t>j'ai creé le copie de mon code dans l'autre projet car je puisse modifier les position des ennemis et je missile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j'ai essayé de corrigé les codes pour effacer les mure mais ca marche pas juste </t>
+  </si>
+  <si>
+    <t>j'ai corrigé les code pour arriver a faire pour chaque enemies un nouveau position mais ca march pas encore</t>
+  </si>
+  <si>
+    <t>j'ai cree 3 vie pour le chip</t>
+  </si>
+  <si>
+    <t>continue a travailler sur les missile et touchant les mures depuis petit enemie et ship et ca marche et juste que j'ai 2 colons pour les mure et je dois corriger</t>
+  </si>
+  <si>
+    <t>travail sur les effacer le ship apres 3 fois toucher  depuis les petit enemies missiles</t>
+  </si>
+  <si>
+    <t>j'ai creé le timer pour 30 second</t>
+  </si>
+  <si>
+    <t>jai travaillé sur le methode haninputenemies pour créer chaque enemies en 1 objet et bougent a gauche et droit just ca marche maitnant mais je dois arriver a les effacer en touchant les missile de ship</t>
+  </si>
+  <si>
+    <t>j'ai trvaillé sur effacer les petites enemies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j'ai separer le methode créer les enemies et boule et tire en 2 methode et maitnant ca marche créer des enemies mais je trvail sur bouger des enemies </t>
+  </si>
+  <si>
+    <t>jai travaillé sur rirer des enemies que ca marche il rest just  bouger des enemies que ca marche pas bien n</t>
   </si>
 </sst>
 </file>
@@ -2663,7 +2699,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="57" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"ETML L,Normal"ETML&amp;C&amp;"-,Normal"Planification&amp;R&amp;G</oddHeader>
     <oddFooter>&amp;L&amp;"-,Normal"&amp;D - GGZ&amp;C&amp;"-,Normal"&amp;F - &amp;A&amp;R&amp;"-,Normal"Page &amp;P/&amp;N</oddFooter>
@@ -2674,27 +2710,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2724,27 +2760,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -5742,8 +5778,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="C255" sqref="C255"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -7976,27 +8012,51 @@
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" s="5"/>
-      <c r="B269" s="4"/>
-      <c r="C269" s="9"/>
+      <c r="A269" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B269" s="4">
+        <v>1</v>
+      </c>
+      <c r="C269" s="95" t="s">
+        <v>110</v>
+      </c>
       <c r="D269" s="9"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" s="1"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="10"/>
+    <row r="270" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B270" s="2">
+        <v>1</v>
+      </c>
+      <c r="C270" s="96" t="s">
+        <v>111</v>
+      </c>
       <c r="D270" s="10"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" s="1"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="10"/>
+    <row r="271" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B271" s="2">
+        <v>2</v>
+      </c>
+      <c r="C271" s="96" t="s">
+        <v>113</v>
+      </c>
       <c r="D271" s="10"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" s="1"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="10"/>
+      <c r="A272" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B272" s="2">
+        <v>2</v>
+      </c>
+      <c r="C272" s="96" t="s">
+        <v>112</v>
+      </c>
       <c r="D272" s="10"/>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
@@ -8071,7 +8131,7 @@
       </c>
       <c r="B284" s="47">
         <f>SUM(B269:B283)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C284" s="88" t="s">
         <v>34</v>
@@ -8113,28 +8173,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" s="5"/>
-      <c r="B288" s="4"/>
-      <c r="C288" s="9"/>
+    <row r="288" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A288" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B288" s="4">
+        <v>3</v>
+      </c>
+      <c r="C288" s="95" t="s">
+        <v>115</v>
+      </c>
       <c r="D288" s="9"/>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" s="1"/>
-      <c r="B289" s="2"/>
-      <c r="C289" s="10"/>
+      <c r="A289" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B289" s="2">
+        <v>1</v>
+      </c>
+      <c r="C289" s="96" t="s">
+        <v>114</v>
+      </c>
       <c r="D289" s="10"/>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" s="1"/>
-      <c r="B290" s="2"/>
-      <c r="C290" s="10"/>
+      <c r="A290" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B290" s="2">
+        <v>2</v>
+      </c>
+      <c r="C290" s="96" t="s">
+        <v>116</v>
+      </c>
       <c r="D290" s="10"/>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" s="1"/>
-      <c r="B291" s="2"/>
-      <c r="C291" s="10"/>
+      <c r="A291" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B291" s="2">
+        <v>1</v>
+      </c>
+      <c r="C291" s="96" t="s">
+        <v>117</v>
+      </c>
       <c r="D291" s="10"/>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
@@ -8209,7 +8293,7 @@
       </c>
       <c r="B303" s="47">
         <f>SUM(B288:B302)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C303" s="88" t="s">
         <v>34</v>
@@ -8254,7 +8338,9 @@
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="5"/>
       <c r="B307" s="4"/>
-      <c r="C307" s="9"/>
+      <c r="C307" s="95" t="s">
+        <v>80</v>
+      </c>
       <c r="D307" s="9"/>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
@@ -8389,28 +8475,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326" s="5"/>
-      <c r="B326" s="4"/>
-      <c r="C326" s="9"/>
+    <row r="326" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A326" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B326" s="4">
+        <v>2</v>
+      </c>
+      <c r="C326" s="95" t="s">
+        <v>118</v>
+      </c>
       <c r="D326" s="9"/>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327" s="1"/>
-      <c r="B327" s="2"/>
-      <c r="C327" s="10"/>
+      <c r="A327" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B327" s="2">
+        <v>2</v>
+      </c>
+      <c r="C327" s="96" t="s">
+        <v>119</v>
+      </c>
       <c r="D327" s="10"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328" s="1"/>
-      <c r="B328" s="2"/>
-      <c r="C328" s="10"/>
+    <row r="328" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B328" s="2">
+        <v>2</v>
+      </c>
+      <c r="C328" s="96" t="s">
+        <v>120</v>
+      </c>
       <c r="D328" s="10"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329" s="1"/>
-      <c r="B329" s="2"/>
-      <c r="C329" s="10"/>
+    <row r="329" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B329" s="2">
+        <v>1</v>
+      </c>
+      <c r="C329" s="96" t="s">
+        <v>121</v>
+      </c>
       <c r="D329" s="10"/>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.25">
@@ -8485,7 +8595,7 @@
       </c>
       <c r="B341" s="47">
         <f>SUM(B326:B340)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C341" s="88" t="s">
         <v>34</v>
@@ -8831,6 +8941,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a2a625e4713a1206e22a4c67b5bce77a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44987950040cbf76ec9c25f294fcc9dd" ns2:_="" ns3:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -9051,27 +9181,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C29126A-0525-4FCA-A870-5924A033DD5A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B433C9A-8A3A-4D69-955C-F3F07BFE315A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9088,23 +9217,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7C29126A-0525-4FCA-A870-5924A033DD5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/planification-Projet-Hanieh Mohajerani.xlsx
+++ b/Docs/planification-Projet-Hanieh Mohajerani.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cours-Semestre\Semestres\Semestre 1-2\Projet-Module-C#\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{296A3DA5-09AC-4086-8057-3724066BA925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398949A9-2333-4B1F-8545-4B31948105AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Donnees" sheetId="7" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="129">
   <si>
     <t>Module :</t>
   </si>
@@ -250,39 +250,15 @@
     <t>j'ai analyser le sujet,ce n'est pas encore claire pour moi</t>
   </si>
   <si>
-    <t>j'ai regardé sir le site et j'essaie a comprendre mieux</t>
-  </si>
-  <si>
-    <t>j'ai fait le planification pour durée de travail</t>
-  </si>
-  <si>
     <t>créer git hub</t>
   </si>
   <si>
-    <t>j'ai créé mon git hub</t>
-  </si>
-  <si>
-    <t>j'ai creé les methodes et la class  Vecteur2d et la classe SpaceShip,classe game ,ballequitombe et gameobjet et ses methodes dedans</t>
-  </si>
-  <si>
     <t xml:space="preserve"> depelacer le jeu vers le bas </t>
   </si>
   <si>
     <t>depelacer le jeu a gouche et droit</t>
   </si>
   <si>
-    <t xml:space="preserve">j'ai ajouter un champ playerShip de type SpaceShip </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ajoutez le nouveau vaisseau à la liste des objets du jeu.</t>
-  </si>
-  <si>
-    <t>s la méthode Update de la classe SpaceShip</t>
-  </si>
-  <si>
-    <t>j'ai corrigé les codes et ca march,il va a gouche et droit juste.</t>
-  </si>
-  <si>
     <t>depelacment juste a gouche et droit</t>
   </si>
   <si>
@@ -424,9 +400,6 @@
     <t>j'ai creé le timer pour 30 second</t>
   </si>
   <si>
-    <t>jai travaillé sur le methode haninputenemies pour créer chaque enemies en 1 objet et bougent a gauche et droit just ca marche maitnant mais je dois arriver a les effacer en touchant les missile de ship</t>
-  </si>
-  <si>
     <t>j'ai trvaillé sur effacer les petites enemies</t>
   </si>
   <si>
@@ -434,6 +407,54 @@
   </si>
   <si>
     <t>jai travaillé sur rirer des enemies que ca marche il rest just  bouger des enemies que ca marche pas bien n</t>
+  </si>
+  <si>
+    <t>j'ai creé le rapport de projet et corrigé encore les commentaire et diagramme des class</t>
+  </si>
+  <si>
+    <t>j'a ajouté le menu d'entrer dans 1 class separer</t>
+  </si>
+  <si>
+    <t>j'ai testé mes codes avec test unitaire mais le problem ce que je n'ai pas creé ce projet avec MVC dons je ne peux pas tester les méthodes que ils affichent quel qule chose. J'ai testé que les stractures</t>
+  </si>
+  <si>
+    <t>j'ai des problemes sur mes codes par exemple affichache de moment GameOver ou qaund des enemis bougent vers la gauche je ne peux bien les effacer .</t>
+  </si>
+  <si>
+    <t>jai travaillé sur le methode handinputenemies pour créer chaque enemies en 1 objet et bougent a gauche et droit just ca marche maitnant mais je dois arriver a les effacer en touchant les missile de ship</t>
+  </si>
+  <si>
+    <t>j'ai séparé le méthodes HandInputenemies et j'ai creé les autres méthodes comme :CreatEnemies et MoveEnemiesVerticaly MoveAndShootWithEnemies comme ca je peux effacer des enemies depuis mon ship avec tirer des missiles</t>
+  </si>
+  <si>
+    <t>J'ai regardé sur le site et j'essaie de mieux comprendre.</t>
+  </si>
+  <si>
+    <t>J'ai créé mon GitHub</t>
+  </si>
+  <si>
+    <t>J'ai fait la planification pour la durée de travail.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	J'ai corrigé les codes, maintenant le vaisseau se déplace correctement vers la gauche et la droite</t>
+  </si>
+  <si>
+    <t>j'ai créé la classe Missile a fin que je peux créer les methodes pour tirer depuis de mon  vaisseau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> j'a ajouté le nouveau vaisseau à la liste des objets du jeu.</t>
+  </si>
+  <si>
+    <t>j'ai ajouté la méthode Draw de la classe SpaceShip pour aficher mon vaisseau.</t>
+  </si>
+  <si>
+    <t>. Dans la classe SpaceShip j'ai créé des méthodes pour bouger  mon vaisseau  mais il bouge pas maitnant.le méthode est HandleShipInput.(pas terminé).</t>
+  </si>
+  <si>
+    <t>J'ai créé les méthodes et  les classes SpaceShip, Enemy, avec leurs méthodes</t>
+  </si>
+  <si>
+    <t>j'ai ajouté la condition  dans la méthode Draw pour aficher le  vaisseau</t>
   </si>
 </sst>
 </file>
@@ -2710,27 +2731,27 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning">
+        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet">
           <controlPr defaultSize="0" autoLine="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>190500</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15364" r:id="rId5" name="btnCreatePlanning"/>
+        <control shapeId="15365" r:id="rId5" name="btnCreateWorkSheet"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -2760,27 +2781,27 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet">
+        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning">
           <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>190500</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="15365" r:id="rId9" name="btnCreateWorkSheet"/>
+        <control shapeId="15364" r:id="rId9" name="btnCreatePlanning"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -3489,7 +3510,7 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
+    <sheetView topLeftCell="A125" workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
@@ -3580,7 +3601,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="90" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="10"/>
     </row>
@@ -3693,7 +3714,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="90" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D19" s="10"/>
     </row>
@@ -3701,7 +3722,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="90" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D20" s="10"/>
       <c r="F20" s="31"/>
@@ -3844,7 +3865,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="90" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D33" s="10"/>
     </row>
@@ -3856,7 +3877,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="90" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D34" s="10"/>
     </row>
@@ -3943,7 +3964,7 @@
       <c r="A45" s="5"/>
       <c r="B45" s="4"/>
       <c r="C45" s="91" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D45" s="9"/>
     </row>
@@ -3953,7 +3974,7 @@
         <v>2</v>
       </c>
       <c r="C46" s="90" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D46" s="10"/>
     </row>
@@ -3963,7 +3984,7 @@
         <v>2</v>
       </c>
       <c r="C47" s="90" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D47" s="10"/>
     </row>
@@ -4056,7 +4077,7 @@
       <c r="A59" s="5"/>
       <c r="B59" s="4"/>
       <c r="C59" s="91" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D59" s="9"/>
     </row>
@@ -4161,7 +4182,7 @@
       <c r="A73" s="5"/>
       <c r="B73" s="4"/>
       <c r="C73" s="91" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D73" s="9"/>
     </row>
@@ -4173,7 +4194,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="90" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D74" s="10"/>
     </row>
@@ -4272,7 +4293,7 @@
       <c r="A87" s="5"/>
       <c r="B87" s="4"/>
       <c r="C87" s="91" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D87" s="9"/>
     </row>
@@ -5778,8 +5799,8 @@
   <sheetPr codeName="Feuil9"/>
   <dimension ref="A1:H381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
-      <selection activeCell="C329" sqref="C329"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -5840,7 +5861,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="90" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="D4" s="10"/>
     </row>
@@ -5849,10 +5870,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="D5" s="10"/>
     </row>
@@ -5861,26 +5882,35 @@
         <v>28</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="D6" s="10"/>
     </row>
     <row r="7" spans="1:4" s="52" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="90" t="s">
-        <v>64</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>127</v>
       </c>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:4" s="52" customFormat="1" ht="27" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>126</v>
+      </c>
       <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" s="52" customFormat="1" x14ac:dyDescent="0.25">
@@ -5943,7 +5973,7 @@
       </c>
       <c r="B18" s="47">
         <f>SUM(B3:B17)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C18" s="88" t="s">
         <v>34</v>
@@ -5991,15 +6021,15 @@
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" s="90" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="D23" s="10"/>
     </row>
@@ -6008,20 +6038,22 @@
         <v>28</v>
       </c>
       <c r="B24" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" s="90" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="D24" s="10"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="B25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="90" t="s">
-        <v>69</v>
+        <v>125</v>
       </c>
       <c r="D25" s="10"/>
       <c r="F25" s="31"/>
@@ -6029,9 +6061,15 @@
       <c r="H25" s="33"/>
     </row>
     <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="10"/>
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="96" t="s">
+        <v>128</v>
+      </c>
       <c r="D26" s="10"/>
       <c r="F26" s="34"/>
       <c r="G26" s="30"/>
@@ -6133,7 +6171,7 @@
       </c>
       <c r="B37" s="47">
         <f>SUM(B22:B36)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C37" s="88" t="s">
         <v>34</v>
@@ -6181,15 +6219,15 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C42" s="90" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="D42" s="10"/>
     </row>
@@ -6199,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="90" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D43" s="10"/>
     </row>
@@ -6281,7 +6319,7 @@
       </c>
       <c r="B56" s="47">
         <f>SUM(B41:B55)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C56" s="88" t="s">
         <v>34</v>
@@ -6337,7 +6375,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="90" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D61" s="10"/>
     </row>
@@ -6349,7 +6387,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="90" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D62" s="10"/>
     </row>
@@ -6359,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="94" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D63" s="10"/>
     </row>
@@ -6481,7 +6519,7 @@
       <c r="A79" s="5"/>
       <c r="B79" s="4"/>
       <c r="C79" s="91" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D79" s="9"/>
     </row>
@@ -6625,7 +6663,7 @@
         <v>2</v>
       </c>
       <c r="C98" s="91" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D98" s="9"/>
     </row>
@@ -6773,7 +6811,7 @@
         <v>2</v>
       </c>
       <c r="C117" s="91" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D117" s="9"/>
     </row>
@@ -6785,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="C118" s="90" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D118" s="10"/>
     </row>
@@ -6797,7 +6835,7 @@
         <v>1</v>
       </c>
       <c r="C119" s="90" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D119" s="10"/>
     </row>
@@ -6929,7 +6967,7 @@
         <v>2</v>
       </c>
       <c r="C136" s="95" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D136" s="9"/>
     </row>
@@ -6941,7 +6979,7 @@
         <v>1</v>
       </c>
       <c r="C137" s="96" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D137" s="10"/>
     </row>
@@ -6953,7 +6991,7 @@
         <v>1</v>
       </c>
       <c r="C138" s="96" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D138" s="10"/>
     </row>
@@ -7085,7 +7123,7 @@
         <v>1</v>
       </c>
       <c r="C155" s="95" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D155" s="9"/>
     </row>
@@ -7097,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="C156" s="96" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D156" s="10"/>
     </row>
@@ -7109,7 +7147,7 @@
         <v>1</v>
       </c>
       <c r="C157" s="96" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D157" s="10"/>
     </row>
@@ -7121,7 +7159,7 @@
         <v>1</v>
       </c>
       <c r="C158" s="96" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D158" s="10"/>
     </row>
@@ -7247,7 +7285,7 @@
         <v>1</v>
       </c>
       <c r="C174" s="95" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D174" s="9"/>
     </row>
@@ -7259,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="C175" s="96" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D175" s="10"/>
     </row>
@@ -7271,7 +7309,7 @@
         <v>2</v>
       </c>
       <c r="C176" s="96" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D176" s="10"/>
     </row>
@@ -7403,7 +7441,7 @@
         <v>1</v>
       </c>
       <c r="C193" s="95" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D193" s="9"/>
     </row>
@@ -7415,7 +7453,7 @@
         <v>1</v>
       </c>
       <c r="C194" s="96" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D194" s="10"/>
     </row>
@@ -7427,7 +7465,7 @@
         <v>1</v>
       </c>
       <c r="C195" s="96" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D195" s="10"/>
     </row>
@@ -7439,7 +7477,7 @@
         <v>1</v>
       </c>
       <c r="C196" s="96" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D196" s="10"/>
     </row>
@@ -7561,7 +7599,7 @@
       <c r="A212" s="5"/>
       <c r="B212" s="4"/>
       <c r="C212" s="95" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D212" s="9"/>
     </row>
@@ -7701,7 +7739,7 @@
       <c r="A231" s="5"/>
       <c r="B231" s="4"/>
       <c r="C231" s="95" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D231" s="9"/>
     </row>
@@ -7842,10 +7880,10 @@
         <v>28</v>
       </c>
       <c r="B250" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C250" s="95" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D250" s="9"/>
     </row>
@@ -7854,10 +7892,10 @@
         <v>28</v>
       </c>
       <c r="B251" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C251" s="96" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D251" s="10"/>
     </row>
@@ -7866,10 +7904,10 @@
         <v>28</v>
       </c>
       <c r="B252" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C252" s="96" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D252" s="10"/>
     </row>
@@ -7878,10 +7916,10 @@
         <v>28</v>
       </c>
       <c r="B253" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C253" s="96" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D253" s="10"/>
     </row>
@@ -7893,7 +7931,7 @@
         <v>1</v>
       </c>
       <c r="C254" s="96" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D254" s="10"/>
     </row>
@@ -7902,10 +7940,10 @@
         <v>28</v>
       </c>
       <c r="B255" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C255" s="96" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D255" s="10"/>
     </row>
@@ -7969,7 +8007,7 @@
       </c>
       <c r="B265" s="47">
         <f>SUM(B250:B264)</f>
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C265" s="88" t="s">
         <v>34</v>
@@ -8016,10 +8054,10 @@
         <v>28</v>
       </c>
       <c r="B269" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C269" s="95" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D269" s="9"/>
     </row>
@@ -8028,10 +8066,10 @@
         <v>28</v>
       </c>
       <c r="B270" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C270" s="96" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D270" s="10"/>
     </row>
@@ -8043,7 +8081,7 @@
         <v>2</v>
       </c>
       <c r="C271" s="96" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D271" s="10"/>
     </row>
@@ -8055,7 +8093,7 @@
         <v>2</v>
       </c>
       <c r="C272" s="96" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D272" s="10"/>
     </row>
@@ -8131,7 +8169,7 @@
       </c>
       <c r="B284" s="47">
         <f>SUM(B269:B283)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C284" s="88" t="s">
         <v>34</v>
@@ -8181,7 +8219,7 @@
         <v>3</v>
       </c>
       <c r="C288" s="95" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D288" s="9"/>
     </row>
@@ -8190,10 +8228,10 @@
         <v>28</v>
       </c>
       <c r="B289" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C289" s="96" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D289" s="10"/>
     </row>
@@ -8205,7 +8243,7 @@
         <v>2</v>
       </c>
       <c r="C290" s="96" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D290" s="10"/>
     </row>
@@ -8214,10 +8252,10 @@
         <v>28</v>
       </c>
       <c r="B291" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C291" s="96" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D291" s="10"/>
     </row>
@@ -8293,7 +8331,7 @@
       </c>
       <c r="B303" s="47">
         <f>SUM(B288:B302)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C303" s="88" t="s">
         <v>34</v>
@@ -8339,7 +8377,7 @@
       <c r="A307" s="5"/>
       <c r="B307" s="4"/>
       <c r="C307" s="95" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D307" s="9"/>
     </row>
@@ -8483,7 +8521,7 @@
         <v>2</v>
       </c>
       <c r="C326" s="95" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D326" s="9"/>
     </row>
@@ -8495,7 +8533,7 @@
         <v>2</v>
       </c>
       <c r="C327" s="96" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D327" s="10"/>
     </row>
@@ -8507,7 +8545,7 @@
         <v>2</v>
       </c>
       <c r="C328" s="96" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D328" s="10"/>
     </row>
@@ -8519,14 +8557,16 @@
         <v>1</v>
       </c>
       <c r="C329" s="96" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D329" s="10"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A330" s="1"/>
       <c r="B330" s="2"/>
-      <c r="C330" s="10"/>
+      <c r="C330" s="96" t="s">
+        <v>118</v>
+      </c>
       <c r="D330" s="10"/>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.25">
@@ -8638,27 +8678,51 @@
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A345" s="5"/>
-      <c r="B345" s="4"/>
-      <c r="C345" s="9"/>
+      <c r="A345" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B345" s="4">
+        <v>4</v>
+      </c>
+      <c r="C345" s="95" t="s">
+        <v>113</v>
+      </c>
       <c r="D345" s="9"/>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A346" s="1"/>
-      <c r="B346" s="2"/>
-      <c r="C346" s="10"/>
+      <c r="A346" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B346" s="2">
+        <v>2</v>
+      </c>
+      <c r="C346" s="96" t="s">
+        <v>114</v>
+      </c>
       <c r="D346" s="10"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A347" s="1"/>
-      <c r="B347" s="2"/>
-      <c r="C347" s="10"/>
+    <row r="347" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B347" s="2">
+        <v>2</v>
+      </c>
+      <c r="C347" s="96" t="s">
+        <v>115</v>
+      </c>
       <c r="D347" s="10"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A348" s="1"/>
-      <c r="B348" s="2"/>
-      <c r="C348" s="10"/>
+    <row r="348" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B348" s="2">
+        <v>2</v>
+      </c>
+      <c r="C348" s="96" t="s">
+        <v>116</v>
+      </c>
       <c r="D348" s="10"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.25">
@@ -8733,7 +8797,7 @@
       </c>
       <c r="B360" s="47">
         <f>SUM(B345:B359)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C360" s="88" t="s">
         <v>34</v>
@@ -8776,9 +8840,9 @@
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A364" s="5"/>
-      <c r="B364" s="4"/>
-      <c r="C364" s="9"/>
+      <c r="A364" s="1"/>
+      <c r="B364" s="2"/>
+      <c r="C364" s="10"/>
       <c r="D364" s="9"/>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.25">
@@ -8830,7 +8894,7 @@
       <c r="D372" s="10"/>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A373" s="2"/>
+      <c r="A373" s="1"/>
       <c r="B373" s="2"/>
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
@@ -8870,8 +8934,8 @@
         <v>22</v>
       </c>
       <c r="B379" s="47">
-        <f>SUM(B364:B378)</f>
-        <v>0</v>
+        <f>SUM(B345:B378)</f>
+        <v>40</v>
       </c>
       <c r="C379" s="88" t="s">
         <v>34</v>
@@ -8941,26 +9005,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001ABD9BFFC9E543439C53A2705AE306EF" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="a2a625e4713a1206e22a4c67b5bce77a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bf2f2df3-a963-4452-b0e7-67dabc627c35" xmlns:ns3="f7d9f5a6-831d-4621-8c77-cbcaf993e406" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44987950040cbf76ec9c25f294fcc9dd" ns2:_="" ns3:_="">
     <xsd:import namespace="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
@@ -9181,10 +9225,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bf2f2df3-a963-4452-b0e7-67dabc627c35">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f7d9f5a6-831d-4621-8c77-cbcaf993e406" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B433C9A-8A3A-4D69-955C-F3F07BFE315A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
+    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9201,20 +9276,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B433C9A-8A3A-4D69-955C-F3F07BFE315A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{483719EA-391A-4C4B-985B-9805B7FCB9D5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bf2f2df3-a963-4452-b0e7-67dabc627c35"/>
-    <ds:schemaRef ds:uri="f7d9f5a6-831d-4621-8c77-cbcaf993e406"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>